--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="38400" windowHeight="24000" tabRatio="895" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="38400" windowHeight="24000" tabRatio="895" firstSheet="6" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Ctrl 50 Nodes AZ" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,12 @@
     <sheet name="Reroute 50 nodes RS" sheetId="10" r:id="rId10"/>
     <sheet name="Reroute 50 nodes Local" sheetId="11" r:id="rId11"/>
     <sheet name="Reroute 50 nodes Analysis" sheetId="12" r:id="rId12"/>
-    <sheet name="Results Summary" sheetId="13" r:id="rId13"/>
-    <sheet name="Mean Tables" sheetId="14" r:id="rId14"/>
+    <sheet name="Encrypt 50 nodes AZ" sheetId="15" r:id="rId13"/>
+    <sheet name="Encrypt 50 nodes RS" sheetId="16" r:id="rId14"/>
+    <sheet name="Encrypt 50 nodes Local" sheetId="17" r:id="rId15"/>
+    <sheet name="Encrypt 50 nodes Analysis" sheetId="18" r:id="rId16"/>
+    <sheet name="Results Summary" sheetId="13" r:id="rId17"/>
+    <sheet name="Mean Tables" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="42">
   <si>
     <t>Run: 1</t>
   </si>
@@ -144,6 +148,21 @@
   <si>
     <t>Reroute</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 2 Hierarchical Configuration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date/Time: 2012-10-13 21:54:04 +0000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date/Time: 2012-10-13 21:53:55 +0000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date/Time: 2012-10-13 15:57:20 -0600 </t>
+  </si>
+  <si>
+    <t>Encrypt</t>
+  </si>
 </sst>
 </file>
 
@@ -197,8 +216,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -240,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -259,6 +288,11 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -277,6 +311,11 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4507,6 +4546,69 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Mean Tables'!$F$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encrypt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean Tables'!$B$32:$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Mean Tables'!$F$32:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00827325436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02420423402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05735084384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26649778978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2436560111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5204,6 +5306,69 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Mean Tables'!$F$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encrypt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean Tables'!$B$39:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Mean Tables'!$F$39:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0833727414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11053703596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14222670912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16849799864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17064873444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5510,6 +5675,69 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.28859551604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Mean Tables'!$F$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encrypt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Mean Tables'!$B$46:$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Mean Tables'!$F$46:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19120752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20963492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24192332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26158208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27357608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11108,7 +11336,7 @@
   <dimension ref="A1:AX21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A16" sqref="A16:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12022,7 +12250,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -12316,6 +12544,2807 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:50">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50">
+      <c r="A5">
+        <v>1.8767392000000001E-2</v>
+      </c>
+      <c r="B5">
+        <v>7.7597459999999997E-3</v>
+      </c>
+      <c r="C5">
+        <v>7.9905919999999995E-3</v>
+      </c>
+      <c r="D5">
+        <v>7.9569559999999994E-3</v>
+      </c>
+      <c r="E5">
+        <v>7.9890580000000003E-3</v>
+      </c>
+      <c r="F5">
+        <v>7.9897820000000008E-3</v>
+      </c>
+      <c r="G5">
+        <v>7.9547569999999998E-3</v>
+      </c>
+      <c r="H5">
+        <v>8.0469389999999995E-3</v>
+      </c>
+      <c r="I5">
+        <v>7.9458250000000001E-3</v>
+      </c>
+      <c r="J5">
+        <v>7.521911E-3</v>
+      </c>
+      <c r="K5">
+        <v>8.4381300000000003E-3</v>
+      </c>
+      <c r="L5">
+        <v>1.2004948E-2</v>
+      </c>
+      <c r="M5">
+        <v>9.006867E-3</v>
+      </c>
+      <c r="N5">
+        <v>6.8624760000000002E-3</v>
+      </c>
+      <c r="O5">
+        <v>8.0927289999999999E-3</v>
+      </c>
+      <c r="P5">
+        <v>7.8721069999999997E-3</v>
+      </c>
+      <c r="Q5">
+        <v>8.0184739999999994E-3</v>
+      </c>
+      <c r="R5">
+        <v>7.9349399999999997E-3</v>
+      </c>
+      <c r="S5">
+        <v>8.0516230000000008E-3</v>
+      </c>
+      <c r="T5">
+        <v>8.0906699999999995E-3</v>
+      </c>
+      <c r="U5">
+        <v>7.7962309999999998E-3</v>
+      </c>
+      <c r="V5">
+        <v>8.0450160000000003E-3</v>
+      </c>
+      <c r="W5">
+        <v>7.5334959999999998E-3</v>
+      </c>
+      <c r="X5">
+        <v>8.5156450000000005E-3</v>
+      </c>
+      <c r="Y5">
+        <v>7.9058040000000007E-3</v>
+      </c>
+      <c r="Z5">
+        <v>1.2206096E-2</v>
+      </c>
+      <c r="AA5">
+        <v>7.7247770000000004E-3</v>
+      </c>
+      <c r="AB5">
+        <v>8.2588360000000003E-3</v>
+      </c>
+      <c r="AC5">
+        <v>7.9255790000000003E-3</v>
+      </c>
+      <c r="AD5">
+        <v>9.8591470000000004E-3</v>
+      </c>
+      <c r="AE5">
+        <v>5.9021890000000004E-3</v>
+      </c>
+      <c r="AF5">
+        <v>8.1502410000000008E-3</v>
+      </c>
+      <c r="AG5">
+        <v>5.4463319999999999E-3</v>
+      </c>
+      <c r="AH5">
+        <v>6.3902459999999996E-3</v>
+      </c>
+      <c r="AI5">
+        <v>8.1696210000000002E-3</v>
+      </c>
+      <c r="AJ5">
+        <v>7.8290660000000008E-3</v>
+      </c>
+      <c r="AK5">
+        <v>8.1569620000000002E-3</v>
+      </c>
+      <c r="AL5">
+        <v>7.8592839999999994E-3</v>
+      </c>
+      <c r="AM5">
+        <v>7.7221049999999999E-3</v>
+      </c>
+      <c r="AN5">
+        <v>8.1878390000000006E-3</v>
+      </c>
+      <c r="AO5">
+        <v>7.8496829999999997E-3</v>
+      </c>
+      <c r="AP5">
+        <v>1.2168867999999999E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>7.8587580000000004E-3</v>
+      </c>
+      <c r="AR5">
+        <v>8.1167779999999998E-3</v>
+      </c>
+      <c r="AS5">
+        <v>8.0915799999999993E-3</v>
+      </c>
+      <c r="AT5">
+        <v>7.8353520000000003E-3</v>
+      </c>
+      <c r="AU5">
+        <v>7.9919520000000001E-3</v>
+      </c>
+      <c r="AV5">
+        <v>8.0308640000000004E-3</v>
+      </c>
+      <c r="AW5">
+        <v>5.3072450000000004E-3</v>
+      </c>
+      <c r="AX5">
+        <v>6.5312039999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50">
+      <c r="A7">
+        <v>4.3572774000000002E-2</v>
+      </c>
+      <c r="B7">
+        <v>1.9812204999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.7953051999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.9842287E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.8010120999999999E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.4023942E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.9925664999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.6797630000000001E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.7262489000000001E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.4073675999999999E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.9860267000000001E-2</v>
+      </c>
+      <c r="L7">
+        <v>1.9848022E-2</v>
+      </c>
+      <c r="M7">
+        <v>2.4124328E-2</v>
+      </c>
+      <c r="N7">
+        <v>2.8002269999999999E-2</v>
+      </c>
+      <c r="O7">
+        <v>2.0056265E-2</v>
+      </c>
+      <c r="P7">
+        <v>3.9943524000000001E-2</v>
+      </c>
+      <c r="Q7">
+        <v>2.7927463999999999E-2</v>
+      </c>
+      <c r="R7">
+        <v>1.9933894000000001E-2</v>
+      </c>
+      <c r="S7">
+        <v>2.4152923999999999E-2</v>
+      </c>
+      <c r="T7">
+        <v>1.9563052000000001E-2</v>
+      </c>
+      <c r="U7">
+        <v>1.6276832000000001E-2</v>
+      </c>
+      <c r="V7">
+        <v>2.0022294E-2</v>
+      </c>
+      <c r="W7">
+        <v>2.2805112999999998E-2</v>
+      </c>
+      <c r="X7">
+        <v>2.1875070999999999E-2</v>
+      </c>
+      <c r="Y7">
+        <v>1.8086363000000001E-2</v>
+      </c>
+      <c r="Z7">
+        <v>1.7020813999999999E-2</v>
+      </c>
+      <c r="AA7">
+        <v>2.6906103000000001E-2</v>
+      </c>
+      <c r="AB7">
+        <v>3.3024546000000002E-2</v>
+      </c>
+      <c r="AC7">
+        <v>2.8088193000000001E-2</v>
+      </c>
+      <c r="AD7">
+        <v>2.0200513E-2</v>
+      </c>
+      <c r="AE7">
+        <v>2.7925431000000001E-2</v>
+      </c>
+      <c r="AF7">
+        <v>2.3987405E-2</v>
+      </c>
+      <c r="AG7">
+        <v>1.9908739000000002E-2</v>
+      </c>
+      <c r="AH7">
+        <v>2.4099964000000001E-2</v>
+      </c>
+      <c r="AI7">
+        <v>2.6142340999999999E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>2.1853771000000001E-2</v>
+      </c>
+      <c r="AK7">
+        <v>5.2010189999999998E-2</v>
+      </c>
+      <c r="AL7">
+        <v>1.8965969999999999E-2</v>
+      </c>
+      <c r="AM7">
+        <v>2.0723190999999998E-2</v>
+      </c>
+      <c r="AN7">
+        <v>2.5336028999999999E-2</v>
+      </c>
+      <c r="AO7">
+        <v>1.8511738E-2</v>
+      </c>
+      <c r="AP7">
+        <v>2.4147802999999999E-2</v>
+      </c>
+      <c r="AQ7">
+        <v>1.998778E-2</v>
+      </c>
+      <c r="AR7">
+        <v>1.9969302000000001E-2</v>
+      </c>
+      <c r="AS7">
+        <v>2.7943631E-2</v>
+      </c>
+      <c r="AT7">
+        <v>3.8248204000000001E-2</v>
+      </c>
+      <c r="AU7">
+        <v>1.7879009000000001E-2</v>
+      </c>
+      <c r="AV7">
+        <v>1.6671399999999999E-2</v>
+      </c>
+      <c r="AW7">
+        <v>2.3101805999999999E-2</v>
+      </c>
+      <c r="AX7">
+        <v>2.3806304E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50">
+      <c r="A9">
+        <v>6.0166220999999999E-2</v>
+      </c>
+      <c r="B9">
+        <v>5.5942358999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.8001233999999997E-2</v>
+      </c>
+      <c r="D9">
+        <v>4.8063070999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>5.0272774999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.3576921999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>7.2066017999999996E-2</v>
+      </c>
+      <c r="H9">
+        <v>5.5947941000000001E-2</v>
+      </c>
+      <c r="I9">
+        <v>6.0022012999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>5.2018797999999998E-2</v>
+      </c>
+      <c r="K9">
+        <v>7.1949995000000003E-2</v>
+      </c>
+      <c r="L9">
+        <v>5.1979309000000001E-2</v>
+      </c>
+      <c r="M9">
+        <v>5.6165408E-2</v>
+      </c>
+      <c r="N9">
+        <v>7.1862491000000001E-2</v>
+      </c>
+      <c r="O9">
+        <v>5.5931316000000002E-2</v>
+      </c>
+      <c r="P9">
+        <v>6.0017332E-2</v>
+      </c>
+      <c r="Q9">
+        <v>4.7940400000000001E-2</v>
+      </c>
+      <c r="R9">
+        <v>4.4031898999999999E-2</v>
+      </c>
+      <c r="S9">
+        <v>4.8009916999999999E-2</v>
+      </c>
+      <c r="T9">
+        <v>5.1946029999999997E-2</v>
+      </c>
+      <c r="U9">
+        <v>4.8003163000000001E-2</v>
+      </c>
+      <c r="V9">
+        <v>5.2097797000000001E-2</v>
+      </c>
+      <c r="W9">
+        <v>4.3907025000000002E-2</v>
+      </c>
+      <c r="X9">
+        <v>4.8017162000000002E-2</v>
+      </c>
+      <c r="Y9">
+        <v>8.7985050999999995E-2</v>
+      </c>
+      <c r="Z9">
+        <v>4.8072570000000002E-2</v>
+      </c>
+      <c r="AA9">
+        <v>4.6559376999999999E-2</v>
+      </c>
+      <c r="AB9">
+        <v>5.3378588999999997E-2</v>
+      </c>
+      <c r="AC9">
+        <v>7.1881735000000002E-2</v>
+      </c>
+      <c r="AD9">
+        <v>5.2480301E-2</v>
+      </c>
+      <c r="AE9">
+        <v>5.1655993999999997E-2</v>
+      </c>
+      <c r="AF9">
+        <v>7.9836687000000003E-2</v>
+      </c>
+      <c r="AG9">
+        <v>5.5987250000000002E-2</v>
+      </c>
+      <c r="AH9">
+        <v>5.6017032000000001E-2</v>
+      </c>
+      <c r="AI9">
+        <v>4.8025389000000002E-2</v>
+      </c>
+      <c r="AJ9">
+        <v>4.7923417000000003E-2</v>
+      </c>
+      <c r="AK9">
+        <v>6.8078515000000006E-2</v>
+      </c>
+      <c r="AL9">
+        <v>4.7951684000000001E-2</v>
+      </c>
+      <c r="AM9">
+        <v>5.5881227999999998E-2</v>
+      </c>
+      <c r="AN9">
+        <v>5.6088115000000001E-2</v>
+      </c>
+      <c r="AO9">
+        <v>6.3922725E-2</v>
+      </c>
+      <c r="AP9">
+        <v>9.2022638000000004E-2</v>
+      </c>
+      <c r="AQ9">
+        <v>6.0171981999999999E-2</v>
+      </c>
+      <c r="AR9">
+        <v>5.9736561000000001E-2</v>
+      </c>
+      <c r="AS9">
+        <v>5.6019584999999997E-2</v>
+      </c>
+      <c r="AT9">
+        <v>5.9957139999999999E-2</v>
+      </c>
+      <c r="AU9">
+        <v>6.0035791999999998E-2</v>
+      </c>
+      <c r="AV9">
+        <v>5.9924009E-2</v>
+      </c>
+      <c r="AW9">
+        <v>6.4014452999999999E-2</v>
+      </c>
+      <c r="AX9">
+        <v>5.5997776999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11">
+        <v>0.28040583099999999</v>
+      </c>
+      <c r="B11">
+        <v>0.26031354099999998</v>
+      </c>
+      <c r="C11">
+        <v>0.29297769000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.34798632800000001</v>
+      </c>
+      <c r="E11">
+        <v>0.24001192099999999</v>
+      </c>
+      <c r="F11">
+        <v>0.25994038200000003</v>
+      </c>
+      <c r="G11">
+        <v>0.23618879600000001</v>
+      </c>
+      <c r="H11">
+        <v>0.43200660899999999</v>
+      </c>
+      <c r="I11">
+        <v>0.23699757799999999</v>
+      </c>
+      <c r="J11">
+        <v>0.246782006</v>
+      </c>
+      <c r="K11">
+        <v>0.24484394300000001</v>
+      </c>
+      <c r="L11">
+        <v>0.37567073299999998</v>
+      </c>
+      <c r="M11">
+        <v>0.31203068</v>
+      </c>
+      <c r="N11">
+        <v>0.68344330600000003</v>
+      </c>
+      <c r="O11">
+        <v>0.244010957</v>
+      </c>
+      <c r="P11">
+        <v>0.239833717</v>
+      </c>
+      <c r="Q11">
+        <v>0.25203722499999998</v>
+      </c>
+      <c r="R11">
+        <v>0.23594066499999999</v>
+      </c>
+      <c r="S11">
+        <v>0.24844298100000001</v>
+      </c>
+      <c r="T11">
+        <v>0.28352426200000003</v>
+      </c>
+      <c r="U11">
+        <v>0.24808169699999999</v>
+      </c>
+      <c r="V11">
+        <v>0.26251557399999997</v>
+      </c>
+      <c r="W11">
+        <v>0.24950324300000001</v>
+      </c>
+      <c r="X11">
+        <v>0.28386023500000002</v>
+      </c>
+      <c r="Y11">
+        <v>0.240552604</v>
+      </c>
+      <c r="Z11">
+        <v>0.23539937599999999</v>
+      </c>
+      <c r="AA11">
+        <v>0.223960046</v>
+      </c>
+      <c r="AB11">
+        <v>0.22817278799999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.23184698100000001</v>
+      </c>
+      <c r="AD11">
+        <v>0.24009196299999999</v>
+      </c>
+      <c r="AE11">
+        <v>0.24021474600000001</v>
+      </c>
+      <c r="AF11">
+        <v>0.26378863299999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.23626322299999999</v>
+      </c>
+      <c r="AH11">
+        <v>0.251722263</v>
+      </c>
+      <c r="AI11">
+        <v>0.23982447700000001</v>
+      </c>
+      <c r="AJ11">
+        <v>0.24006080199999999</v>
+      </c>
+      <c r="AK11">
+        <v>0.227888275</v>
+      </c>
+      <c r="AL11">
+        <v>0.23999321500000001</v>
+      </c>
+      <c r="AM11">
+        <v>0.24416834500000001</v>
+      </c>
+      <c r="AN11">
+        <v>0.23597388599999999</v>
+      </c>
+      <c r="AO11">
+        <v>0.31593338599999998</v>
+      </c>
+      <c r="AP11">
+        <v>0.23624152100000001</v>
+      </c>
+      <c r="AQ11">
+        <v>0.234404049</v>
+      </c>
+      <c r="AR11">
+        <v>0.28966202299999999</v>
+      </c>
+      <c r="AS11">
+        <v>0.24775747200000001</v>
+      </c>
+      <c r="AT11">
+        <v>0.24401852099999999</v>
+      </c>
+      <c r="AU11">
+        <v>0.23566396000000001</v>
+      </c>
+      <c r="AV11">
+        <v>0.23599544</v>
+      </c>
+      <c r="AW11">
+        <v>0.22794672299999999</v>
+      </c>
+      <c r="AX11">
+        <v>0.239994871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="A13">
+        <v>0.26777754300000001</v>
+      </c>
+      <c r="B13">
+        <v>0.224338328</v>
+      </c>
+      <c r="C13">
+        <v>0.26799823299999997</v>
+      </c>
+      <c r="D13">
+        <v>0.23557913899999999</v>
+      </c>
+      <c r="E13">
+        <v>0.22401407800000001</v>
+      </c>
+      <c r="F13">
+        <v>0.256099988</v>
+      </c>
+      <c r="G13">
+        <v>0.23181817800000001</v>
+      </c>
+      <c r="H13">
+        <v>0.22398462399999999</v>
+      </c>
+      <c r="I13">
+        <v>0.22034029299999999</v>
+      </c>
+      <c r="J13">
+        <v>0.23596799399999999</v>
+      </c>
+      <c r="K13">
+        <v>0.25578580699999998</v>
+      </c>
+      <c r="L13">
+        <v>0.26014751200000003</v>
+      </c>
+      <c r="M13">
+        <v>0.27981166600000001</v>
+      </c>
+      <c r="N13">
+        <v>0.24833376800000001</v>
+      </c>
+      <c r="O13">
+        <v>0.243909233</v>
+      </c>
+      <c r="P13">
+        <v>0.28371011699999998</v>
+      </c>
+      <c r="Q13">
+        <v>0.24402811699999999</v>
+      </c>
+      <c r="R13">
+        <v>0.22940744599999999</v>
+      </c>
+      <c r="S13">
+        <v>0.27007050100000002</v>
+      </c>
+      <c r="T13">
+        <v>0.23032076200000001</v>
+      </c>
+      <c r="U13">
+        <v>0.225972864</v>
+      </c>
+      <c r="V13">
+        <v>0.223983338</v>
+      </c>
+      <c r="W13">
+        <v>0.300280506</v>
+      </c>
+      <c r="X13">
+        <v>0.25232780599999999</v>
+      </c>
+      <c r="Y13">
+        <v>0.22974534799999999</v>
+      </c>
+      <c r="Z13">
+        <v>0.28563774199999997</v>
+      </c>
+      <c r="AA13">
+        <v>0.24401400300000001</v>
+      </c>
+      <c r="AB13">
+        <v>0.232045537</v>
+      </c>
+      <c r="AC13">
+        <v>0.21975682499999999</v>
+      </c>
+      <c r="AD13">
+        <v>0.227990361</v>
+      </c>
+      <c r="AE13">
+        <v>0.22407887500000001</v>
+      </c>
+      <c r="AF13">
+        <v>0.235857804</v>
+      </c>
+      <c r="AG13">
+        <v>0.26429553099999997</v>
+      </c>
+      <c r="AH13">
+        <v>0.25978797599999998</v>
+      </c>
+      <c r="AI13">
+        <v>0.26783266999999999</v>
+      </c>
+      <c r="AJ13">
+        <v>0.22811103799999999</v>
+      </c>
+      <c r="AK13">
+        <v>0.25555157000000001</v>
+      </c>
+      <c r="AL13">
+        <v>0.244331719</v>
+      </c>
+      <c r="AM13">
+        <v>0.248074985</v>
+      </c>
+      <c r="AN13">
+        <v>0.240161495</v>
+      </c>
+      <c r="AO13">
+        <v>0.239690035</v>
+      </c>
+      <c r="AP13">
+        <v>0.22807860099999999</v>
+      </c>
+      <c r="AQ13">
+        <v>0.23992852000000001</v>
+      </c>
+      <c r="AR13">
+        <v>0.22819534499999999</v>
+      </c>
+      <c r="AS13">
+        <v>0.223842917</v>
+      </c>
+      <c r="AT13">
+        <v>0.22846286800000001</v>
+      </c>
+      <c r="AU13">
+        <v>0.247517764</v>
+      </c>
+      <c r="AV13">
+        <v>0.24895862999999999</v>
+      </c>
+      <c r="AW13">
+        <v>0.230975178</v>
+      </c>
+      <c r="AX13">
+        <v>0.22386937700000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(A5:AX5)</f>
+        <v>8.2732543599999993E-3</v>
+      </c>
+      <c r="C17">
+        <f>MEDIAN(A5:AX5)</f>
+        <v>7.9894200000000005E-3</v>
+      </c>
+      <c r="D17">
+        <f>STDEV(A5:AX5)</f>
+        <v>1.9874190201382333E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(A7:AX7)</f>
+        <v>2.420423402E-2</v>
+      </c>
+      <c r="C18">
+        <f>MEDIAN(A7:AX7)</f>
+        <v>2.2953459499999999E-2</v>
+      </c>
+      <c r="D18">
+        <f>STDEV(A7:AX7)</f>
+        <v>7.0297895990495997E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(A9:AX9)</f>
+        <v>5.7350843839999985E-2</v>
+      </c>
+      <c r="C19">
+        <f>MEDIAN(A9:AX9)</f>
+        <v>5.5945149999999999E-2</v>
+      </c>
+      <c r="D19">
+        <f>STDEV(A9:AX9)</f>
+        <v>1.0472804954635229E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(A11:AX11)</f>
+        <v>0.26649778977999999</v>
+      </c>
+      <c r="C20">
+        <f>MEDIAN(A11:AX11)</f>
+        <v>0.24401473899999998</v>
+      </c>
+      <c r="D20">
+        <f>STDEV(A11:AX11)</f>
+        <v>7.1947636811143342E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGE(A13:AX13)</f>
+        <v>0.24365601110000001</v>
+      </c>
+      <c r="C21">
+        <f>MEDIAN(A13:AX13)</f>
+        <v>0.2398092775</v>
+      </c>
+      <c r="D21">
+        <f>STDEV(A13:AX13)</f>
+        <v>1.9411519536868978E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:50">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50">
+      <c r="A5">
+        <v>0.110931153</v>
+      </c>
+      <c r="B5">
+        <v>0.107056718</v>
+      </c>
+      <c r="C5">
+        <v>8.2764227999999995E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.3367082999999995E-2</v>
+      </c>
+      <c r="E5">
+        <v>8.0940135999999996E-2</v>
+      </c>
+      <c r="F5">
+        <v>8.2676250000000007E-2</v>
+      </c>
+      <c r="G5">
+        <v>8.0912976999999997E-2</v>
+      </c>
+      <c r="H5">
+        <v>8.0600487999999998E-2</v>
+      </c>
+      <c r="I5">
+        <v>8.0825066000000001E-2</v>
+      </c>
+      <c r="J5">
+        <v>8.2228458000000004E-2</v>
+      </c>
+      <c r="K5">
+        <v>8.3255674000000002E-2</v>
+      </c>
+      <c r="L5">
+        <v>8.1142086000000002E-2</v>
+      </c>
+      <c r="M5">
+        <v>8.1343703000000003E-2</v>
+      </c>
+      <c r="N5">
+        <v>7.9834648999999994E-2</v>
+      </c>
+      <c r="O5">
+        <v>8.3265849000000003E-2</v>
+      </c>
+      <c r="P5">
+        <v>8.0157672999999999E-2</v>
+      </c>
+      <c r="Q5">
+        <v>7.9785498999999996E-2</v>
+      </c>
+      <c r="R5">
+        <v>7.9981460000000004E-2</v>
+      </c>
+      <c r="S5">
+        <v>8.0042073000000005E-2</v>
+      </c>
+      <c r="T5">
+        <v>8.2827547000000001E-2</v>
+      </c>
+      <c r="U5">
+        <v>8.5100693000000005E-2</v>
+      </c>
+      <c r="V5">
+        <v>8.3985912999999995E-2</v>
+      </c>
+      <c r="W5">
+        <v>8.6353342999999999E-2</v>
+      </c>
+      <c r="X5">
+        <v>8.1714205999999998E-2</v>
+      </c>
+      <c r="Y5">
+        <v>8.0850054000000005E-2</v>
+      </c>
+      <c r="Z5">
+        <v>7.9808584000000002E-2</v>
+      </c>
+      <c r="AA5">
+        <v>8.3610903E-2</v>
+      </c>
+      <c r="AB5">
+        <v>8.7511115E-2</v>
+      </c>
+      <c r="AC5">
+        <v>8.0095739999999999E-2</v>
+      </c>
+      <c r="AD5">
+        <v>8.7832924000000007E-2</v>
+      </c>
+      <c r="AE5">
+        <v>7.9676845999999996E-2</v>
+      </c>
+      <c r="AF5">
+        <v>8.4419810999999997E-2</v>
+      </c>
+      <c r="AG5">
+        <v>8.3992259999999999E-2</v>
+      </c>
+      <c r="AH5">
+        <v>8.3946172999999999E-2</v>
+      </c>
+      <c r="AI5">
+        <v>8.0567899999999998E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>8.7319751000000001E-2</v>
+      </c>
+      <c r="AK5">
+        <v>7.9502985999999998E-2</v>
+      </c>
+      <c r="AL5">
+        <v>8.0730060000000006E-2</v>
+      </c>
+      <c r="AM5">
+        <v>8.3816230000000005E-2</v>
+      </c>
+      <c r="AN5">
+        <v>7.9754551000000007E-2</v>
+      </c>
+      <c r="AO5">
+        <v>8.0032802E-2</v>
+      </c>
+      <c r="AP5">
+        <v>8.4231239999999999E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>8.0473750999999996E-2</v>
+      </c>
+      <c r="AR5">
+        <v>8.3616959000000005E-2</v>
+      </c>
+      <c r="AS5">
+        <v>8.3698521999999997E-2</v>
+      </c>
+      <c r="AT5">
+        <v>8.0010975999999998E-2</v>
+      </c>
+      <c r="AU5">
+        <v>8.0963816999999993E-2</v>
+      </c>
+      <c r="AV5">
+        <v>8.3129501999999994E-2</v>
+      </c>
+      <c r="AW5">
+        <v>8.4848671000000001E-2</v>
+      </c>
+      <c r="AX5">
+        <v>8.3102017E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50">
+      <c r="A7">
+        <v>9.9423942000000001E-2</v>
+      </c>
+      <c r="B7">
+        <v>0.104250709</v>
+      </c>
+      <c r="C7">
+        <v>0.118776649</v>
+      </c>
+      <c r="D7">
+        <v>9.3365378999999998E-2</v>
+      </c>
+      <c r="E7">
+        <v>9.9869640999999995E-2</v>
+      </c>
+      <c r="F7">
+        <v>9.6046648999999998E-2</v>
+      </c>
+      <c r="G7">
+        <v>9.6171271000000003E-2</v>
+      </c>
+      <c r="H7">
+        <v>9.9951315999999998E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.11590851000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.11626136199999999</v>
+      </c>
+      <c r="K7">
+        <v>9.4202641000000004E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.109868413</v>
+      </c>
+      <c r="M7">
+        <v>0.104917951</v>
+      </c>
+      <c r="N7">
+        <v>0.102836238</v>
+      </c>
+      <c r="O7">
+        <v>9.9946980000000005E-2</v>
+      </c>
+      <c r="P7">
+        <v>9.9664001000000002E-2</v>
+      </c>
+      <c r="Q7">
+        <v>9.4078953000000007E-2</v>
+      </c>
+      <c r="R7">
+        <v>0.10681262699999999</v>
+      </c>
+      <c r="S7">
+        <v>9.8756770999999993E-2</v>
+      </c>
+      <c r="T7">
+        <v>0.104804201</v>
+      </c>
+      <c r="U7">
+        <v>9.9904846000000005E-2</v>
+      </c>
+      <c r="V7">
+        <v>9.5799552999999996E-2</v>
+      </c>
+      <c r="W7">
+        <v>0.13210292500000001</v>
+      </c>
+      <c r="X7">
+        <v>0.11261325699999999</v>
+      </c>
+      <c r="Y7">
+        <v>0.119568382</v>
+      </c>
+      <c r="Z7">
+        <v>9.5676629999999999E-2</v>
+      </c>
+      <c r="AA7">
+        <v>0.100589312</v>
+      </c>
+      <c r="AB7">
+        <v>0.103947224</v>
+      </c>
+      <c r="AC7">
+        <v>9.5092017000000001E-2</v>
+      </c>
+      <c r="AD7">
+        <v>0.10197084300000001</v>
+      </c>
+      <c r="AE7">
+        <v>9.9197564000000002E-2</v>
+      </c>
+      <c r="AF7">
+        <v>9.5406805999999997E-2</v>
+      </c>
+      <c r="AG7">
+        <v>9.5294580000000004E-2</v>
+      </c>
+      <c r="AH7">
+        <v>9.7147180999999999E-2</v>
+      </c>
+      <c r="AI7">
+        <v>9.5753251999999997E-2</v>
+      </c>
+      <c r="AJ7">
+        <v>0.127140643</v>
+      </c>
+      <c r="AK7">
+        <v>0.18381573800000001</v>
+      </c>
+      <c r="AL7">
+        <v>0.13950131700000001</v>
+      </c>
+      <c r="AM7">
+        <v>0.20219193799999999</v>
+      </c>
+      <c r="AN7">
+        <v>0.190182079</v>
+      </c>
+      <c r="AO7">
+        <v>0.14497622900000001</v>
+      </c>
+      <c r="AP7">
+        <v>0.10743248399999999</v>
+      </c>
+      <c r="AQ7">
+        <v>9.9762549000000006E-2</v>
+      </c>
+      <c r="AR7">
+        <v>0.10407570100000001</v>
+      </c>
+      <c r="AS7">
+        <v>9.9814016000000005E-2</v>
+      </c>
+      <c r="AT7">
+        <v>9.6244697000000004E-2</v>
+      </c>
+      <c r="AU7">
+        <v>0.10153903</v>
+      </c>
+      <c r="AV7">
+        <v>9.8304120999999994E-2</v>
+      </c>
+      <c r="AW7">
+        <v>0.13581306700000001</v>
+      </c>
+      <c r="AX7">
+        <v>0.100079613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50">
+      <c r="A9">
+        <v>0.175933384</v>
+      </c>
+      <c r="B9">
+        <v>0.17576947500000001</v>
+      </c>
+      <c r="C9">
+        <v>0.18033619300000001</v>
+      </c>
+      <c r="D9">
+        <v>0.131785232</v>
+      </c>
+      <c r="E9">
+        <v>0.18002726299999999</v>
+      </c>
+      <c r="F9">
+        <v>0.15989948500000001</v>
+      </c>
+      <c r="G9">
+        <v>0.13185340800000001</v>
+      </c>
+      <c r="H9">
+        <v>0.13232843799999999</v>
+      </c>
+      <c r="I9">
+        <v>0.126942262</v>
+      </c>
+      <c r="J9">
+        <v>0.14501475899999999</v>
+      </c>
+      <c r="K9">
+        <v>0.132007922</v>
+      </c>
+      <c r="L9">
+        <v>0.15598199200000001</v>
+      </c>
+      <c r="M9">
+        <v>0.13887971299999999</v>
+      </c>
+      <c r="N9">
+        <v>0.145297126</v>
+      </c>
+      <c r="O9">
+        <v>0.13557454999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.13608556199999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.117182145</v>
+      </c>
+      <c r="R9">
+        <v>0.15093985100000001</v>
+      </c>
+      <c r="S9">
+        <v>0.128102468</v>
+      </c>
+      <c r="T9">
+        <v>0.12777935800000001</v>
+      </c>
+      <c r="U9">
+        <v>0.13184041699999999</v>
+      </c>
+      <c r="V9">
+        <v>0.13917100800000001</v>
+      </c>
+      <c r="W9">
+        <v>0.136844834</v>
+      </c>
+      <c r="X9">
+        <v>0.135992216</v>
+      </c>
+      <c r="Y9">
+        <v>0.12418253999999999</v>
+      </c>
+      <c r="Z9">
+        <v>0.13208138799999999</v>
+      </c>
+      <c r="AA9">
+        <v>0.13180691999999999</v>
+      </c>
+      <c r="AB9">
+        <v>0.13189498599999999</v>
+      </c>
+      <c r="AC9">
+        <v>0.168141072</v>
+      </c>
+      <c r="AD9">
+        <v>0.13583524799999999</v>
+      </c>
+      <c r="AE9">
+        <v>0.13557229200000001</v>
+      </c>
+      <c r="AF9">
+        <v>0.19658408099999999</v>
+      </c>
+      <c r="AG9">
+        <v>0.127877984</v>
+      </c>
+      <c r="AH9">
+        <v>0.14016448300000001</v>
+      </c>
+      <c r="AI9">
+        <v>0.13979625900000001</v>
+      </c>
+      <c r="AJ9">
+        <v>0.133650308</v>
+      </c>
+      <c r="AK9">
+        <v>0.16449465699999999</v>
+      </c>
+      <c r="AL9">
+        <v>0.14189981700000001</v>
+      </c>
+      <c r="AM9">
+        <v>0.13778237099999999</v>
+      </c>
+      <c r="AN9">
+        <v>0.13823023300000001</v>
+      </c>
+      <c r="AO9">
+        <v>0.13599336200000001</v>
+      </c>
+      <c r="AP9">
+        <v>0.131781328</v>
+      </c>
+      <c r="AQ9">
+        <v>0.131988472</v>
+      </c>
+      <c r="AR9">
+        <v>0.129485143</v>
+      </c>
+      <c r="AS9">
+        <v>0.174572436</v>
+      </c>
+      <c r="AT9">
+        <v>0.127884048</v>
+      </c>
+      <c r="AU9">
+        <v>0.13626374699999999</v>
+      </c>
+      <c r="AV9">
+        <v>0.15563264600000001</v>
+      </c>
+      <c r="AW9">
+        <v>0.124207147</v>
+      </c>
+      <c r="AX9">
+        <v>0.13196342699999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11">
+        <v>0.171059251</v>
+      </c>
+      <c r="B11">
+        <v>0.22000876</v>
+      </c>
+      <c r="C11">
+        <v>0.15387613</v>
+      </c>
+      <c r="D11">
+        <v>0.18275541000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.163159844</v>
+      </c>
+      <c r="F11">
+        <v>0.159240363</v>
+      </c>
+      <c r="G11">
+        <v>0.208790214</v>
+      </c>
+      <c r="H11">
+        <v>0.18352718500000001</v>
+      </c>
+      <c r="I11">
+        <v>0.17231081200000001</v>
+      </c>
+      <c r="J11">
+        <v>0.15614350599999999</v>
+      </c>
+      <c r="K11">
+        <v>0.21436846900000001</v>
+      </c>
+      <c r="L11">
+        <v>0.14937129699999999</v>
+      </c>
+      <c r="M11">
+        <v>0.17645201799999999</v>
+      </c>
+      <c r="N11">
+        <v>0.154046765</v>
+      </c>
+      <c r="O11">
+        <v>0.19700306400000001</v>
+      </c>
+      <c r="P11">
+        <v>0.151416838</v>
+      </c>
+      <c r="Q11">
+        <v>0.14732413899999999</v>
+      </c>
+      <c r="R11">
+        <v>0.15379989999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.17947395699999999</v>
+      </c>
+      <c r="T11">
+        <v>0.15266257899999999</v>
+      </c>
+      <c r="U11">
+        <v>0.19017605000000001</v>
+      </c>
+      <c r="V11">
+        <v>0.17001917699999999</v>
+      </c>
+      <c r="W11">
+        <v>0.19244930599999999</v>
+      </c>
+      <c r="X11">
+        <v>0.19024449199999999</v>
+      </c>
+      <c r="Y11">
+        <v>0.15464678400000001</v>
+      </c>
+      <c r="Z11">
+        <v>0.17118312099999999</v>
+      </c>
+      <c r="AA11">
+        <v>0.16270282899999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.17431807299999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.151187619</v>
+      </c>
+      <c r="AD11">
+        <v>0.187295775</v>
+      </c>
+      <c r="AE11">
+        <v>0.15558541300000001</v>
+      </c>
+      <c r="AF11">
+        <v>0.14852676000000001</v>
+      </c>
+      <c r="AG11">
+        <v>0.15079695000000001</v>
+      </c>
+      <c r="AH11">
+        <v>0.17733088999999999</v>
+      </c>
+      <c r="AI11">
+        <v>0.18282736499999999</v>
+      </c>
+      <c r="AJ11">
+        <v>0.15202835000000001</v>
+      </c>
+      <c r="AK11">
+        <v>0.15265415500000001</v>
+      </c>
+      <c r="AL11">
+        <v>0.15091442499999999</v>
+      </c>
+      <c r="AM11">
+        <v>0.21319833899999999</v>
+      </c>
+      <c r="AN11">
+        <v>0.15161032699999999</v>
+      </c>
+      <c r="AO11">
+        <v>0.150875917</v>
+      </c>
+      <c r="AP11">
+        <v>0.158476274</v>
+      </c>
+      <c r="AQ11">
+        <v>0.157476112</v>
+      </c>
+      <c r="AR11">
+        <v>0.17408552799999999</v>
+      </c>
+      <c r="AS11">
+        <v>0.14992150400000001</v>
+      </c>
+      <c r="AT11">
+        <v>0.15765146599999999</v>
+      </c>
+      <c r="AU11">
+        <v>0.179586569</v>
+      </c>
+      <c r="AV11">
+        <v>0.16171660600000001</v>
+      </c>
+      <c r="AW11">
+        <v>0.149070647</v>
+      </c>
+      <c r="AX11">
+        <v>0.15955260800000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="A13">
+        <v>0.16254250000000001</v>
+      </c>
+      <c r="B13">
+        <v>0.19552848</v>
+      </c>
+      <c r="C13">
+        <v>0.14417945700000001</v>
+      </c>
+      <c r="D13">
+        <v>0.16373048100000001</v>
+      </c>
+      <c r="E13">
+        <v>0.15468959800000001</v>
+      </c>
+      <c r="F13">
+        <v>0.172269968</v>
+      </c>
+      <c r="G13">
+        <v>0.200451824</v>
+      </c>
+      <c r="H13">
+        <v>0.15270864100000001</v>
+      </c>
+      <c r="I13">
+        <v>0.178874693</v>
+      </c>
+      <c r="J13">
+        <v>0.18710204999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.189261344</v>
+      </c>
+      <c r="L13">
+        <v>0.18467531200000001</v>
+      </c>
+      <c r="M13">
+        <v>0.189009767</v>
+      </c>
+      <c r="N13">
+        <v>0.16448000300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.15681368100000001</v>
+      </c>
+      <c r="P13">
+        <v>0.19754945300000001</v>
+      </c>
+      <c r="Q13">
+        <v>0.198586445</v>
+      </c>
+      <c r="R13">
+        <v>0.155248846</v>
+      </c>
+      <c r="S13">
+        <v>0.19196365000000001</v>
+      </c>
+      <c r="T13">
+        <v>0.15683913999999999</v>
+      </c>
+      <c r="U13">
+        <v>0.20995693000000001</v>
+      </c>
+      <c r="V13">
+        <v>0.16568048899999999</v>
+      </c>
+      <c r="W13">
+        <v>0.170675724</v>
+      </c>
+      <c r="X13">
+        <v>0.169976921</v>
+      </c>
+      <c r="Y13">
+        <v>0.14794422300000001</v>
+      </c>
+      <c r="Z13">
+        <v>0.16289182199999999</v>
+      </c>
+      <c r="AA13">
+        <v>0.15687171</v>
+      </c>
+      <c r="AB13">
+        <v>0.16800021700000001</v>
+      </c>
+      <c r="AC13">
+        <v>0.165056441</v>
+      </c>
+      <c r="AD13">
+        <v>0.150609995</v>
+      </c>
+      <c r="AE13">
+        <v>0.18073677699999999</v>
+      </c>
+      <c r="AF13">
+        <v>0.170441914</v>
+      </c>
+      <c r="AG13">
+        <v>0.162417848</v>
+      </c>
+      <c r="AH13">
+        <v>0.151097167</v>
+      </c>
+      <c r="AI13">
+        <v>0.151063484</v>
+      </c>
+      <c r="AJ13">
+        <v>0.207533475</v>
+      </c>
+      <c r="AK13">
+        <v>0.162006651</v>
+      </c>
+      <c r="AL13">
+        <v>0.15042652500000001</v>
+      </c>
+      <c r="AM13">
+        <v>0.20800712900000001</v>
+      </c>
+      <c r="AN13">
+        <v>0.15741964899999999</v>
+      </c>
+      <c r="AO13">
+        <v>0.17355341799999999</v>
+      </c>
+      <c r="AP13">
+        <v>0.19931220099999999</v>
+      </c>
+      <c r="AQ13">
+        <v>0.158783859</v>
+      </c>
+      <c r="AR13">
+        <v>0.15133065100000001</v>
+      </c>
+      <c r="AS13">
+        <v>0.15086614200000001</v>
+      </c>
+      <c r="AT13">
+        <v>0.170773868</v>
+      </c>
+      <c r="AU13">
+        <v>0.16736009900000001</v>
+      </c>
+      <c r="AV13">
+        <v>0.15156845699999999</v>
+      </c>
+      <c r="AW13">
+        <v>0.19016723599999999</v>
+      </c>
+      <c r="AX13">
+        <v>0.15340036700000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(A5:AX5)</f>
+        <v>8.3372741399999978E-2</v>
+      </c>
+      <c r="C17">
+        <f>MEDIAN(A5:AX5)</f>
+        <v>8.2452354000000005E-2</v>
+      </c>
+      <c r="D17">
+        <f>STDEV(A5:AX5)</f>
+        <v>5.7363063420291099E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(A7:AX7)</f>
+        <v>0.11053703596000002</v>
+      </c>
+      <c r="C18">
+        <f>MEDIAN(A7:AX7)</f>
+        <v>0.1003344625</v>
+      </c>
+      <c r="D18">
+        <f>STDEV(A7:AX7)</f>
+        <v>2.4200892688788406E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(A9:AX9)</f>
+        <v>0.14222670911999996</v>
+      </c>
+      <c r="C19">
+        <f>MEDIAN(A9:AX9)</f>
+        <v>0.135992789</v>
+      </c>
+      <c r="D19">
+        <f>STDEV(A9:AX9)</f>
+        <v>1.7608193390488844E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(A11:AX11)</f>
+        <v>0.16849799863999998</v>
+      </c>
+      <c r="C20">
+        <f>MEDIAN(A11:AX11)</f>
+        <v>0.16063460700000001</v>
+      </c>
+      <c r="D20">
+        <f>STDEV(A11:AX11)</f>
+        <v>1.9408511640730371E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGE(A13:AX13)</f>
+        <v>0.17064873444000001</v>
+      </c>
+      <c r="C21">
+        <f>MEDIAN(A13:AX13)</f>
+        <v>0.16536846499999999</v>
+      </c>
+      <c r="D21">
+        <f>STDEV(A13:AX13)</f>
+        <v>1.8433303245605971E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:50">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50">
+      <c r="A5">
+        <v>0.23088</v>
+      </c>
+      <c r="B5">
+        <v>0.188413</v>
+      </c>
+      <c r="C5">
+        <v>0.18776799999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.191469</v>
+      </c>
+      <c r="E5">
+        <v>0.191329</v>
+      </c>
+      <c r="F5">
+        <v>0.18802099999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.18862599999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.188115</v>
+      </c>
+      <c r="I5">
+        <v>0.191523</v>
+      </c>
+      <c r="J5">
+        <v>0.18857699999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.188114</v>
+      </c>
+      <c r="L5">
+        <v>0.19147600000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.19259200000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.18940299999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.18956300000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.18859400000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.18821099999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.188997</v>
+      </c>
+      <c r="S5">
+        <v>0.19000500000000001</v>
+      </c>
+      <c r="T5">
+        <v>0.19230700000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.19156799999999999</v>
+      </c>
+      <c r="V5">
+        <v>0.19622899999999999</v>
+      </c>
+      <c r="W5">
+        <v>0.18808900000000001</v>
+      </c>
+      <c r="X5">
+        <v>0.19161300000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.18793399999999999</v>
+      </c>
+      <c r="Z5">
+        <v>0.19603799999999999</v>
+      </c>
+      <c r="AA5">
+        <v>0.192214</v>
+      </c>
+      <c r="AB5">
+        <v>0.20155000000000001</v>
+      </c>
+      <c r="AC5">
+        <v>0.19026399999999999</v>
+      </c>
+      <c r="AD5">
+        <v>0.19204299999999999</v>
+      </c>
+      <c r="AE5">
+        <v>0.191805</v>
+      </c>
+      <c r="AF5">
+        <v>0.18846499999999999</v>
+      </c>
+      <c r="AG5">
+        <v>0.18809000000000001</v>
+      </c>
+      <c r="AH5">
+        <v>0.192388</v>
+      </c>
+      <c r="AI5">
+        <v>0.18857599999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.190553</v>
+      </c>
+      <c r="AK5">
+        <v>0.19026299999999999</v>
+      </c>
+      <c r="AL5">
+        <v>0.18820100000000001</v>
+      </c>
+      <c r="AM5">
+        <v>0.188276</v>
+      </c>
+      <c r="AN5">
+        <v>0.18872700000000001</v>
+      </c>
+      <c r="AO5">
+        <v>0.189692</v>
+      </c>
+      <c r="AP5">
+        <v>0.19466600000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>0.196072</v>
+      </c>
+      <c r="AR5">
+        <v>0.19172700000000001</v>
+      </c>
+      <c r="AS5">
+        <v>0.18912699999999999</v>
+      </c>
+      <c r="AT5">
+        <v>0.189161</v>
+      </c>
+      <c r="AU5">
+        <v>0.187917</v>
+      </c>
+      <c r="AV5">
+        <v>0.18860199999999999</v>
+      </c>
+      <c r="AW5">
+        <v>0.18864500000000001</v>
+      </c>
+      <c r="AX5">
+        <v>0.18789800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50">
+      <c r="A7">
+        <v>0.24360200000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.205013</v>
+      </c>
+      <c r="C7">
+        <v>0.202822</v>
+      </c>
+      <c r="D7">
+        <v>0.209564</v>
+      </c>
+      <c r="E7">
+        <v>0.21984400000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.213669</v>
+      </c>
+      <c r="G7">
+        <v>0.20918100000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.21883900000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.20807400000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.20809900000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.21198600000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.201631</v>
+      </c>
+      <c r="M7">
+        <v>0.20369000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.204264</v>
+      </c>
+      <c r="O7">
+        <v>0.20381299999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.206431</v>
+      </c>
+      <c r="Q7">
+        <v>0.20558499999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.20832300000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.20380400000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.20812900000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.203074</v>
+      </c>
+      <c r="V7">
+        <v>0.21094299999999999</v>
+      </c>
+      <c r="W7">
+        <v>0.20777100000000001</v>
+      </c>
+      <c r="X7">
+        <v>0.205565</v>
+      </c>
+      <c r="Y7">
+        <v>0.20430899999999999</v>
+      </c>
+      <c r="Z7">
+        <v>0.23979</v>
+      </c>
+      <c r="AA7">
+        <v>0.20633899999999999</v>
+      </c>
+      <c r="AB7">
+        <v>0.21895000000000001</v>
+      </c>
+      <c r="AC7">
+        <v>0.209146</v>
+      </c>
+      <c r="AD7">
+        <v>0.207038</v>
+      </c>
+      <c r="AE7">
+        <v>0.20000599999999999</v>
+      </c>
+      <c r="AF7">
+        <v>0.21004</v>
+      </c>
+      <c r="AG7">
+        <v>0.205322</v>
+      </c>
+      <c r="AH7">
+        <v>0.20282600000000001</v>
+      </c>
+      <c r="AI7">
+        <v>0.20674500000000001</v>
+      </c>
+      <c r="AJ7">
+        <v>0.21183099999999999</v>
+      </c>
+      <c r="AK7">
+        <v>0.20554800000000001</v>
+      </c>
+      <c r="AL7">
+        <v>0.21126200000000001</v>
+      </c>
+      <c r="AM7">
+        <v>0.21660199999999999</v>
+      </c>
+      <c r="AN7">
+        <v>0.215777</v>
+      </c>
+      <c r="AO7">
+        <v>0.204511</v>
+      </c>
+      <c r="AP7">
+        <v>0.21013100000000001</v>
+      </c>
+      <c r="AQ7">
+        <v>0.204675</v>
+      </c>
+      <c r="AR7">
+        <v>0.204514</v>
+      </c>
+      <c r="AS7">
+        <v>0.22679199999999999</v>
+      </c>
+      <c r="AT7">
+        <v>0.19911300000000001</v>
+      </c>
+      <c r="AU7">
+        <v>0.202127</v>
+      </c>
+      <c r="AV7">
+        <v>0.21618200000000001</v>
+      </c>
+      <c r="AW7">
+        <v>0.203709</v>
+      </c>
+      <c r="AX7">
+        <v>0.21474499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50">
+      <c r="A9">
+        <v>0.305923</v>
+      </c>
+      <c r="B9">
+        <v>0.2399</v>
+      </c>
+      <c r="C9">
+        <v>0.23202400000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.236845</v>
+      </c>
+      <c r="E9">
+        <v>0.23488200000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.26022899999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.23263600000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.23383300000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.24171300000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.231707</v>
+      </c>
+      <c r="K9">
+        <v>0.23624999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.231654</v>
+      </c>
+      <c r="M9">
+        <v>0.22853100000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.232429</v>
+      </c>
+      <c r="O9">
+        <v>0.24376400000000001</v>
+      </c>
+      <c r="P9">
+        <v>0.251799</v>
+      </c>
+      <c r="Q9">
+        <v>0.23174</v>
+      </c>
+      <c r="R9">
+        <v>0.244565</v>
+      </c>
+      <c r="S9">
+        <v>0.231545</v>
+      </c>
+      <c r="T9">
+        <v>0.23152200000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.242592</v>
+      </c>
+      <c r="V9">
+        <v>0.23227800000000001</v>
+      </c>
+      <c r="W9">
+        <v>0.25656200000000001</v>
+      </c>
+      <c r="X9">
+        <v>0.24057300000000001</v>
+      </c>
+      <c r="Y9">
+        <v>0.23610800000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.23186899999999999</v>
+      </c>
+      <c r="AA9">
+        <v>0.24811900000000001</v>
+      </c>
+      <c r="AB9">
+        <v>0.23267599999999999</v>
+      </c>
+      <c r="AC9">
+        <v>0.242868</v>
+      </c>
+      <c r="AD9">
+        <v>0.23586499999999999</v>
+      </c>
+      <c r="AE9">
+        <v>0.24332699999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.23305100000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.22806299999999999</v>
+      </c>
+      <c r="AH9">
+        <v>0.24796299999999999</v>
+      </c>
+      <c r="AI9">
+        <v>0.228551</v>
+      </c>
+      <c r="AJ9">
+        <v>0.22766400000000001</v>
+      </c>
+      <c r="AK9">
+        <v>0.239949</v>
+      </c>
+      <c r="AL9">
+        <v>0.240096</v>
+      </c>
+      <c r="AM9">
+        <v>0.23444200000000001</v>
+      </c>
+      <c r="AN9">
+        <v>0.229407</v>
+      </c>
+      <c r="AO9">
+        <v>0.25187199999999998</v>
+      </c>
+      <c r="AP9">
+        <v>0.24018</v>
+      </c>
+      <c r="AQ9">
+        <v>0.242648</v>
+      </c>
+      <c r="AR9">
+        <v>0.32368599999999997</v>
+      </c>
+      <c r="AS9">
+        <v>0.24943699999999999</v>
+      </c>
+      <c r="AT9">
+        <v>0.23213500000000001</v>
+      </c>
+      <c r="AU9">
+        <v>0.25842999999999999</v>
+      </c>
+      <c r="AV9">
+        <v>0.23631099999999999</v>
+      </c>
+      <c r="AW9">
+        <v>0.25560899999999998</v>
+      </c>
+      <c r="AX9">
+        <v>0.240344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11">
+        <v>0.332258</v>
+      </c>
+      <c r="B11">
+        <v>0.26590900000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.25721300000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.29014899999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.265372</v>
+      </c>
+      <c r="F11">
+        <v>0.34125699999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.25303999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.24743000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.25852199999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.27724799999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.25081100000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.25535000000000002</v>
+      </c>
+      <c r="M11">
+        <v>0.241314</v>
+      </c>
+      <c r="N11">
+        <v>0.27776800000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.24781800000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.27050299999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.304867</v>
+      </c>
+      <c r="R11">
+        <v>0.24651899999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.252085</v>
+      </c>
+      <c r="T11">
+        <v>0.24754499999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.27714299999999997</v>
+      </c>
+      <c r="V11">
+        <v>0.24394199999999999</v>
+      </c>
+      <c r="W11">
+        <v>0.24761900000000001</v>
+      </c>
+      <c r="X11">
+        <v>0.24613499999999999</v>
+      </c>
+      <c r="Y11">
+        <v>0.24609</v>
+      </c>
+      <c r="Z11">
+        <v>0.24560499999999999</v>
+      </c>
+      <c r="AA11">
+        <v>0.26771200000000001</v>
+      </c>
+      <c r="AB11">
+        <v>0.242699</v>
+      </c>
+      <c r="AC11">
+        <v>0.244394</v>
+      </c>
+      <c r="AD11">
+        <v>0.248199</v>
+      </c>
+      <c r="AE11">
+        <v>0.250054</v>
+      </c>
+      <c r="AF11">
+        <v>0.252415</v>
+      </c>
+      <c r="AG11">
+        <v>0.2442</v>
+      </c>
+      <c r="AH11">
+        <v>0.28352300000000003</v>
+      </c>
+      <c r="AI11">
+        <v>0.248617</v>
+      </c>
+      <c r="AJ11">
+        <v>0.28243000000000001</v>
+      </c>
+      <c r="AK11">
+        <v>0.25894099999999998</v>
+      </c>
+      <c r="AL11">
+        <v>0.26085900000000001</v>
+      </c>
+      <c r="AM11">
+        <v>0.30665300000000001</v>
+      </c>
+      <c r="AN11">
+        <v>0.26174399999999998</v>
+      </c>
+      <c r="AO11">
+        <v>0.249721</v>
+      </c>
+      <c r="AP11">
+        <v>0.251245</v>
+      </c>
+      <c r="AQ11">
+        <v>0.27275500000000003</v>
+      </c>
+      <c r="AR11">
+        <v>0.24242</v>
+      </c>
+      <c r="AS11">
+        <v>0.24005799999999999</v>
+      </c>
+      <c r="AT11">
+        <v>0.24309500000000001</v>
+      </c>
+      <c r="AU11">
+        <v>0.26886300000000002</v>
+      </c>
+      <c r="AV11">
+        <v>0.26311200000000001</v>
+      </c>
+      <c r="AW11">
+        <v>0.24579100000000001</v>
+      </c>
+      <c r="AX11">
+        <v>0.26009199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="A13">
+        <v>0.26464199999999999</v>
+      </c>
+      <c r="B13">
+        <v>0.24754799999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.24457100000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.25427</v>
+      </c>
+      <c r="E13">
+        <v>0.248941</v>
+      </c>
+      <c r="F13">
+        <v>0.24709500000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.65653899999999998</v>
+      </c>
+      <c r="H13">
+        <v>0.256963</v>
+      </c>
+      <c r="I13">
+        <v>0.27987600000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.28348499999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.43108999999999997</v>
+      </c>
+      <c r="L13">
+        <v>0.28415699999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.251247</v>
+      </c>
+      <c r="N13">
+        <v>0.28628599999999998</v>
+      </c>
+      <c r="O13">
+        <v>0.290354</v>
+      </c>
+      <c r="P13">
+        <v>0.248085</v>
+      </c>
+      <c r="Q13">
+        <v>0.24363099999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.30479600000000001</v>
+      </c>
+      <c r="S13">
+        <v>0.25931599999999999</v>
+      </c>
+      <c r="T13">
+        <v>0.25233499999999998</v>
+      </c>
+      <c r="U13">
+        <v>0.25073400000000001</v>
+      </c>
+      <c r="V13">
+        <v>0.26462000000000002</v>
+      </c>
+      <c r="W13">
+        <v>0.25742199999999998</v>
+      </c>
+      <c r="X13">
+        <v>0.24277099999999999</v>
+      </c>
+      <c r="Y13">
+        <v>0.24429100000000001</v>
+      </c>
+      <c r="Z13">
+        <v>0.263928</v>
+      </c>
+      <c r="AA13">
+        <v>0.243812</v>
+      </c>
+      <c r="AB13">
+        <v>0.24834400000000001</v>
+      </c>
+      <c r="AC13">
+        <v>0.243834</v>
+      </c>
+      <c r="AD13">
+        <v>0.246832</v>
+      </c>
+      <c r="AE13">
+        <v>0.27426699999999998</v>
+      </c>
+      <c r="AF13">
+        <v>0.29183999999999999</v>
+      </c>
+      <c r="AG13">
+        <v>0.25231199999999998</v>
+      </c>
+      <c r="AH13">
+        <v>0.24686</v>
+      </c>
+      <c r="AI13">
+        <v>0.249443</v>
+      </c>
+      <c r="AJ13">
+        <v>0.25541900000000001</v>
+      </c>
+      <c r="AK13">
+        <v>0.255023</v>
+      </c>
+      <c r="AL13">
+        <v>0.30268699999999998</v>
+      </c>
+      <c r="AM13">
+        <v>0.2893</v>
+      </c>
+      <c r="AN13">
+        <v>0.27444200000000002</v>
+      </c>
+      <c r="AO13">
+        <v>0.28848800000000002</v>
+      </c>
+      <c r="AP13">
+        <v>0.25306400000000001</v>
+      </c>
+      <c r="AQ13">
+        <v>0.24762799999999999</v>
+      </c>
+      <c r="AR13">
+        <v>0.268729</v>
+      </c>
+      <c r="AS13">
+        <v>0.24763299999999999</v>
+      </c>
+      <c r="AT13">
+        <v>0.25260500000000002</v>
+      </c>
+      <c r="AU13">
+        <v>0.27982000000000001</v>
+      </c>
+      <c r="AV13">
+        <v>0.29674299999999998</v>
+      </c>
+      <c r="AW13">
+        <v>0.26261800000000002</v>
+      </c>
+      <c r="AX13">
+        <v>0.24806800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(A5:AX5)</f>
+        <v>0.19120752000000002</v>
+      </c>
+      <c r="C17">
+        <f>MEDIAN(A5:AX5)</f>
+        <v>0.18948300000000001</v>
+      </c>
+      <c r="D17">
+        <f>STDEV(A5:AX5)</f>
+        <v>6.3561281316633694E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(A7:AX7)</f>
+        <v>0.20963492000000003</v>
+      </c>
+      <c r="C18">
+        <f>MEDIAN(A7:AX7)</f>
+        <v>0.20740449999999999</v>
+      </c>
+      <c r="D18">
+        <f>STDEV(A7:AX7)</f>
+        <v>8.6787260934836682E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE(A9:AX9)</f>
+        <v>0.24192332</v>
+      </c>
+      <c r="C19">
+        <f>MEDIAN(A9:AX9)</f>
+        <v>0.23657800000000001</v>
+      </c>
+      <c r="D19">
+        <f>STDEV(A9:AX9)</f>
+        <v>1.7291181661252909E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(A11:AX11)</f>
+        <v>0.26158207999999994</v>
+      </c>
+      <c r="C20">
+        <f>MEDIAN(A11:AX11)</f>
+        <v>0.25272749999999999</v>
+      </c>
+      <c r="D20">
+        <f>STDEV(A11:AX11)</f>
+        <v>2.2162825081322685E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGE(A13:AX13)</f>
+        <v>0.27357608</v>
+      </c>
+      <c r="C21">
+        <f>MEDIAN(A13:AX13)</f>
+        <v>0.25522100000000003</v>
+      </c>
+      <c r="D21">
+        <f>STDEV(A13:AX13)</f>
+        <v>6.2748231170724644E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R3"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
@@ -12351,12 +15380,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:E50"/>
+  <dimension ref="B6:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -12483,7 +15512,7 @@
         <v>0.31970392749999998</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -12497,7 +15526,7 @@
         <v>0.35659823244</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -12511,7 +15540,7 @@
         <v>0.27940036060000001</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -12525,12 +15554,12 @@
         <v>0.28068251051999998</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -12544,7 +15573,7 @@
         <v>0.33364643931999999</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -12558,7 +15587,7 @@
         <v>0.36301413342</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -12572,7 +15601,7 @@
         <v>0.38890592507999999</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -12586,7 +15615,7 @@
         <v>0.28711691975999998</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:6">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -12600,7 +15629,7 @@
         <v>0.28859551604</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:6">
       <c r="B31" t="s">
         <v>20</v>
       </c>
@@ -12613,8 +15642,11 @@
       <c r="E31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" t="s">
         <v>13</v>
       </c>
@@ -12627,8 +15659,11 @@
       <c r="E32">
         <v>1.056530686E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="F32">
+        <v>8.2732543599999993E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -12641,8 +15676,11 @@
       <c r="E33">
         <v>2.3597946799999998E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="F33">
+        <v>2.420423402E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
         <v>15</v>
       </c>
@@ -12655,8 +15693,11 @@
       <c r="E34">
         <v>5.0920396139999997E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="F34">
+        <v>5.7350843839999985E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -12669,8 +15710,11 @@
       <c r="E35">
         <v>0.25689066119999998</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="F35">
+        <v>0.26649778977999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -12683,8 +15727,11 @@
       <c r="E36">
         <v>0.22581137284</v>
       </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="F36">
+        <v>0.24365601110000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" t="s">
         <v>21</v>
       </c>
@@ -12697,8 +15744,11 @@
       <c r="E38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" t="s">
         <v>13</v>
       </c>
@@ -12711,8 +15761,11 @@
       <c r="E39">
         <v>8.6437207000000002E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="F39">
+        <v>8.3372741399999978E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
         <v>14</v>
       </c>
@@ -12725,8 +15778,11 @@
       <c r="E40">
         <v>9.7902047140000004E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="F40">
+        <v>0.11053703596000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" t="s">
         <v>15</v>
       </c>
@@ -12739,8 +15795,11 @@
       <c r="E41">
         <v>0.1216383452</v>
       </c>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="F41">
+        <v>0.14222670911999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" t="s">
         <v>23</v>
       </c>
@@ -12753,8 +15812,11 @@
       <c r="E42">
         <v>0.1548745419</v>
       </c>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="F42">
+        <v>0.16849799864000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" t="s">
         <v>24</v>
       </c>
@@ -12767,8 +15829,11 @@
       <c r="E43">
         <v>0.15318795518</v>
       </c>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="F43">
+        <v>0.17064873444000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" t="s">
         <v>22</v>
       </c>
@@ -12781,8 +15846,11 @@
       <c r="E45" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="2:5">
+      <c r="F45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" t="s">
         <v>13</v>
       </c>
@@ -12795,8 +15863,11 @@
       <c r="E46">
         <v>0.33364643931999999</v>
       </c>
-    </row>
-    <row r="47" spans="2:5">
+      <c r="F46">
+        <v>0.19120752000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" t="s">
         <v>14</v>
       </c>
@@ -12809,8 +15880,11 @@
       <c r="E47">
         <v>0.36301413342</v>
       </c>
-    </row>
-    <row r="48" spans="2:5">
+      <c r="F47">
+        <v>0.20963492000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" t="s">
         <v>15</v>
       </c>
@@ -12823,8 +15897,11 @@
       <c r="E48">
         <v>0.38890592507999999</v>
       </c>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="F48">
+        <v>0.24192332</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" t="s">
         <v>23</v>
       </c>
@@ -12837,8 +15914,11 @@
       <c r="E49">
         <v>0.28711691975999998</v>
       </c>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="F49">
+        <v>0.26158207999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" t="s">
         <v>24</v>
       </c>
@@ -12850,6 +15930,9 @@
       </c>
       <c r="E50">
         <v>0.28859551604</v>
+      </c>
+      <c r="F50">
+        <v>0.27357608</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4683,6 +4683,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -5443,6 +5448,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -5817,6 +5827,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -15385,7 +15400,7 @@
   <dimension ref="B6:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="38400" windowHeight="24000" tabRatio="895" firstSheet="6" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22540" tabRatio="895" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Ctrl 50 Nodes AZ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,11 @@
     <sheet name="Encrypt 50 nodes Analysis" sheetId="18" r:id="rId16"/>
     <sheet name="Results Summary" sheetId="13" r:id="rId17"/>
     <sheet name="Mean Tables" sheetId="14" r:id="rId18"/>
+    <sheet name="Stdev Tables" sheetId="19" r:id="rId19"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId20"/>
+  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="42">
   <si>
     <t>Run: 1</t>
   </si>
@@ -216,8 +220,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -269,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -293,6 +307,11 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -316,6 +335,11 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,7 +438,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -661,12 +684,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143019448"/>
-        <c:axId val="-2143022776"/>
-        <c:axId val="-2143030040"/>
+        <c:axId val="2123862664"/>
+        <c:axId val="2123865640"/>
+        <c:axId val="2123872840"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2143019448"/>
+        <c:axId val="2123862664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143022776"/>
+        <c:crossAx val="2123865640"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -683,7 +706,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143022776"/>
+        <c:axId val="2123865640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,19 +737,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143019448"/>
+        <c:crossAx val="2123862664"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2143030040"/>
+        <c:axId val="2123872840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -735,7 +757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143022776"/>
+        <c:crossAx val="2123865640"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -752,7 +774,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -795,7 +816,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1042,12 +1062,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140639224"/>
-        <c:axId val="-2140635912"/>
-        <c:axId val="-2140629992"/>
+        <c:axId val="2124356968"/>
+        <c:axId val="2124359944"/>
+        <c:axId val="2124365784"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2140639224"/>
+        <c:axId val="2124356968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140635912"/>
+        <c:crossAx val="2124359944"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1064,7 +1084,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140635912"/>
+        <c:axId val="2124359944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,19 +1115,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140639224"/>
+        <c:crossAx val="2124356968"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140629992"/>
+        <c:axId val="2124365784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140635912"/>
+        <c:crossAx val="2124359944"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1133,7 +1152,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1176,7 +1194,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1423,12 +1440,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140592552"/>
-        <c:axId val="-2140589240"/>
-        <c:axId val="-2140583320"/>
+        <c:axId val="2123704280"/>
+        <c:axId val="2123701288"/>
+        <c:axId val="2123695464"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2140592552"/>
+        <c:axId val="2123704280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140589240"/>
+        <c:crossAx val="2123701288"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1445,7 +1462,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140589240"/>
+        <c:axId val="2123701288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,19 +1493,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140592552"/>
+        <c:crossAx val="2123704280"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140583320"/>
+        <c:axId val="2123695464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140589240"/>
+        <c:crossAx val="2123701288"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1514,7 +1530,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1557,7 +1572,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1804,12 +1818,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140545736"/>
-        <c:axId val="-2140542424"/>
-        <c:axId val="-2140536504"/>
+        <c:axId val="2123657784"/>
+        <c:axId val="2123651816"/>
+        <c:axId val="2123645864"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2140545736"/>
+        <c:axId val="2123657784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1850,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1849,7 +1862,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2140542424"/>
+        <c:crossAx val="2123651816"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1857,7 +1870,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140542424"/>
+        <c:axId val="2123651816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1901,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1902,12 +1914,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2140545736"/>
+        <c:crossAx val="2123657784"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140536504"/>
+        <c:axId val="2123645864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140542424"/>
+        <c:crossAx val="2123651816"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1926,7 +1938,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1969,7 +1980,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2216,12 +2226,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140498472"/>
-        <c:axId val="-2140495160"/>
-        <c:axId val="-2140489240"/>
+        <c:axId val="2123610408"/>
+        <c:axId val="2123607416"/>
+        <c:axId val="2123601592"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2140498472"/>
+        <c:axId val="2123610408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140495160"/>
+        <c:crossAx val="2123607416"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2238,7 +2248,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140495160"/>
+        <c:axId val="2123607416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,19 +2279,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140498472"/>
+        <c:crossAx val="2123610408"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140489240"/>
+        <c:axId val="2123601592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,7 +2299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140495160"/>
+        <c:crossAx val="2123607416"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2307,7 +2316,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2350,7 +2358,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2597,12 +2604,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140452056"/>
-        <c:axId val="-2140448744"/>
-        <c:axId val="-2140442824"/>
+        <c:axId val="2123565144"/>
+        <c:axId val="2123562152"/>
+        <c:axId val="2123556328"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2140452056"/>
+        <c:axId val="2123565144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,7 +2618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140448744"/>
+        <c:crossAx val="2123562152"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2619,7 +2626,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140448744"/>
+        <c:axId val="2123562152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2650,19 +2657,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140452056"/>
+        <c:crossAx val="2123565144"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140442824"/>
+        <c:axId val="2123556328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140448744"/>
+        <c:crossAx val="2123562152"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2688,7 +2694,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2736,7 +2741,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2983,12 +2987,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140405624"/>
-        <c:axId val="-2140402312"/>
-        <c:axId val="-2140396392"/>
+        <c:axId val="2123517816"/>
+        <c:axId val="2123512104"/>
+        <c:axId val="2123506120"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2140405624"/>
+        <c:axId val="2123517816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,7 +3014,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3023,7 +3026,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2140402312"/>
+        <c:crossAx val="2123512104"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3031,7 +3034,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140402312"/>
+        <c:axId val="2123512104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,7 +3065,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3076,12 +3078,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2140405624"/>
+        <c:crossAx val="2123517816"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140396392"/>
+        <c:axId val="2123506120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3090,7 +3092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140402312"/>
+        <c:crossAx val="2123512104"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3107,7 +3109,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3150,7 +3151,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3397,12 +3397,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140359160"/>
-        <c:axId val="-2140355848"/>
-        <c:axId val="-2140349928"/>
+        <c:axId val="2123470824"/>
+        <c:axId val="2123467832"/>
+        <c:axId val="2123462008"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2140359160"/>
+        <c:axId val="2123470824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3411,7 +3411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140355848"/>
+        <c:crossAx val="2123467832"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3419,7 +3419,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140355848"/>
+        <c:axId val="2123467832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3450,19 +3450,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140359160"/>
+        <c:crossAx val="2123470824"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140349928"/>
+        <c:axId val="2123462008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3471,7 +3470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140355848"/>
+        <c:crossAx val="2123467832"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3488,7 +3487,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3531,7 +3529,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3778,12 +3775,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140312744"/>
-        <c:axId val="-2140309432"/>
-        <c:axId val="-2140303512"/>
+        <c:axId val="2123425560"/>
+        <c:axId val="2123422568"/>
+        <c:axId val="2123416744"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2140312744"/>
+        <c:axId val="2123425560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3792,7 +3789,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140309432"/>
+        <c:crossAx val="2123422568"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3800,7 +3797,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140309432"/>
+        <c:axId val="2123422568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3831,19 +3828,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140312744"/>
+        <c:crossAx val="2123425560"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140303512"/>
+        <c:axId val="2123416744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3852,7 +3848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140309432"/>
+        <c:crossAx val="2123422568"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3869,7 +3865,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3917,7 +3912,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4164,12 +4158,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140266184"/>
-        <c:axId val="-2140262872"/>
-        <c:axId val="-2140256952"/>
+        <c:axId val="2123378088"/>
+        <c:axId val="2123372376"/>
+        <c:axId val="2127902520"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2140266184"/>
+        <c:axId val="2123378088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,7 +4185,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4204,7 +4197,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2140262872"/>
+        <c:crossAx val="2123372376"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4212,7 +4205,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140262872"/>
+        <c:axId val="2123372376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,7 +4236,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4257,12 +4249,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2140266184"/>
+        <c:crossAx val="2123378088"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140256952"/>
+        <c:axId val="2127902520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,7 +4263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140262872"/>
+        <c:crossAx val="2123372376"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4288,7 +4280,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4337,11 +4328,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" baseline="0"/>
-              <a:t> Effects (Amazon</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>)</a:t>
+              <a:t> Effects (Amazon)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4618,11 +4605,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2073545896"/>
-        <c:axId val="-2073543272"/>
+        <c:axId val="2127959576"/>
+        <c:axId val="2127962696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2073545896"/>
+        <c:axId val="2127959576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,7 +4618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073543272"/>
+        <c:crossAx val="2127962696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4639,7 +4626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073543272"/>
+        <c:axId val="2127962696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4669,7 +4656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073545896"/>
+        <c:crossAx val="2127959576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4719,7 +4706,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4966,12 +4952,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143799656"/>
-        <c:axId val="-2143796344"/>
-        <c:axId val="-2143790424"/>
+        <c:axId val="2123910680"/>
+        <c:axId val="2123913656"/>
+        <c:axId val="2123919496"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2143799656"/>
+        <c:axId val="2123910680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4980,7 +4966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143796344"/>
+        <c:crossAx val="2123913656"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4988,7 +4974,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143796344"/>
+        <c:axId val="2123913656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5019,19 +5005,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143799656"/>
+        <c:crossAx val="2123910680"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2143790424"/>
+        <c:axId val="2123919496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5040,7 +5025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143796344"/>
+        <c:crossAx val="2123913656"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5057,7 +5042,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5383,11 +5367,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2073931256"/>
-        <c:axId val="-2020801048"/>
+        <c:axId val="2128048760"/>
+        <c:axId val="2128051880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2073931256"/>
+        <c:axId val="2128048760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,7 +5380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2020801048"/>
+        <c:crossAx val="2128051880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5404,7 +5388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2020801048"/>
+        <c:axId val="2128051880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5434,7 +5418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073931256"/>
+        <c:crossAx val="2128048760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5762,11 +5746,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2111532136"/>
-        <c:axId val="-2111439592"/>
+        <c:axId val="2128093256"/>
+        <c:axId val="2128096376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111532136"/>
+        <c:axId val="2128093256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5775,7 +5759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111439592"/>
+        <c:crossAx val="2128096376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5783,7 +5767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111439592"/>
+        <c:axId val="2128096376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5813,7 +5797,1158 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111532136"/>
+        <c:crossAx val="2128093256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Strategy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> Effects (Amazon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$14:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$C$14:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0135974179021536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0556846952325991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0882477196438837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.162156556913979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.011273730225503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reroute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$14:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$D$14:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0142535255571191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.041860762093233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0752381737674622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.201748880280714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0299591277670359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Redact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$14:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$E$14:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0139668916241698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0394281527689942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0766637690254129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.191039386944321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0156677243605009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encrypt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$14:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$F$14:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00198741902013823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0070297895990496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0104728049546352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0719476368111433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.019411519536869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2057792088"/>
+        <c:axId val="-2057788968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2057792088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2057788968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2057788968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2057792088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Strategy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> Effects (Rackspace)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$22:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$C$22:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0130905724838124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0086656908586574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0132269688416416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0136239937863897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0117136728473721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reroute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$22:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$D$22:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0172552290033539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0181377109371019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0237072188616262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.025963980882958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0279703220828592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Redact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$22:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$E$22:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0180032539517348</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00982711834130477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0132090174863075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0154703007345029</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.015982130169186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encrypt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$22:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$F$22:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00573630634202911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0242008926887884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0176081933904888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0194085116407304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.018433303245606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2058319720"/>
+        <c:axId val="-2068037672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2058319720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2068037672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2068037672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2058319720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Strategy Effects (Comcast)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$30:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$C$30:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.014075242408649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.707249634092766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0496295654536787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0421457774594088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0201407190872556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reroute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$30:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$D$30:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0617650335902102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0606658915303481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0557948909850965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0311830311778193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0287137085090921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Redact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$30:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$E$30:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0764953397841321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0704002043527644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0825546942581573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0544311675793773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0614566625876779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encrypt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Stdev Tables'!$B$30:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Peer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neighbor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Distant (1)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Distant (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stdev Tables'!$F$30:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00635612813166337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00867872609348367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0172911816612529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0221628250813227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0627482311707246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2042392008"/>
+        <c:axId val="-2042395144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2042392008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2042395144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2042395144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2042392008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5863,7 +6998,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6110,12 +7244,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143753160"/>
-        <c:axId val="-2143749848"/>
-        <c:axId val="-2143743928"/>
+        <c:axId val="2123955608"/>
+        <c:axId val="2123958584"/>
+        <c:axId val="2123964424"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2143753160"/>
+        <c:axId val="2123955608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6124,7 +7258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143749848"/>
+        <c:crossAx val="2123958584"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6132,7 +7266,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143749848"/>
+        <c:axId val="2123958584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6163,19 +7297,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143753160"/>
+        <c:crossAx val="2123955608"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2143743928"/>
+        <c:axId val="2123964424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6184,7 +7317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143749848"/>
+        <c:crossAx val="2123958584"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6201,7 +7334,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6244,7 +7376,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6491,12 +7622,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143122536"/>
-        <c:axId val="-2143125864"/>
-        <c:axId val="-2143131768"/>
+        <c:axId val="2124024568"/>
+        <c:axId val="2124027544"/>
+        <c:axId val="2124033384"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2143122536"/>
+        <c:axId val="2124024568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6505,7 +7636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143125864"/>
+        <c:crossAx val="2124027544"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6513,7 +7644,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143125864"/>
+        <c:axId val="2124027544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6544,19 +7675,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143122536"/>
+        <c:crossAx val="2124024568"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2143131768"/>
+        <c:axId val="2124033384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6565,7 +7695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143125864"/>
+        <c:crossAx val="2124027544"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6582,7 +7712,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6625,7 +7754,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6872,12 +8000,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143170296"/>
-        <c:axId val="-2143173624"/>
-        <c:axId val="-2143179528"/>
+        <c:axId val="2124071528"/>
+        <c:axId val="2124074504"/>
+        <c:axId val="2124080344"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2143170296"/>
+        <c:axId val="2124071528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6886,7 +8014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143173624"/>
+        <c:crossAx val="2124074504"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6894,7 +8022,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143173624"/>
+        <c:axId val="2124074504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6925,19 +8053,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143170296"/>
+        <c:crossAx val="2124071528"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2143179528"/>
+        <c:axId val="2124080344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6946,7 +8073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143173624"/>
+        <c:crossAx val="2124074504"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6963,7 +8090,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7006,7 +8132,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7253,12 +8378,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143218520"/>
-        <c:axId val="-2143221848"/>
-        <c:axId val="-2143227752"/>
+        <c:axId val="2124117624"/>
+        <c:axId val="2124120600"/>
+        <c:axId val="2124126440"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2143218520"/>
+        <c:axId val="2124117624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7267,7 +8392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143221848"/>
+        <c:crossAx val="2124120600"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7275,7 +8400,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143221848"/>
+        <c:axId val="2124120600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7306,19 +8431,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143218520"/>
+        <c:crossAx val="2124117624"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2143227752"/>
+        <c:axId val="2124126440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7327,7 +8451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143221848"/>
+        <c:crossAx val="2124120600"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7344,7 +8468,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7387,7 +8510,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7634,12 +8756,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143287464"/>
-        <c:axId val="-2140789384"/>
-        <c:axId val="-2140783464"/>
+        <c:axId val="2124187656"/>
+        <c:axId val="2124190632"/>
+        <c:axId val="2124196472"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2143287464"/>
+        <c:axId val="2124187656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7648,7 +8770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140789384"/>
+        <c:crossAx val="2124190632"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7656,7 +8778,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140789384"/>
+        <c:axId val="2124190632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7687,19 +8809,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143287464"/>
+        <c:crossAx val="2124187656"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140783464"/>
+        <c:axId val="2124196472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7708,7 +8829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140789384"/>
+        <c:crossAx val="2124190632"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7725,7 +8846,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7768,7 +8888,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8015,12 +9134,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140744264"/>
-        <c:axId val="-2140740952"/>
-        <c:axId val="-2140735032"/>
+        <c:axId val="2124234920"/>
+        <c:axId val="2124237896"/>
+        <c:axId val="2124243736"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2140744264"/>
+        <c:axId val="2124234920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8029,7 +9148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140740952"/>
+        <c:crossAx val="2124237896"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8037,7 +9156,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140740952"/>
+        <c:axId val="2124237896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8068,19 +9187,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140744264"/>
+        <c:crossAx val="2124234920"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140735032"/>
+        <c:axId val="2124243736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8089,7 +9207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140740952"/>
+        <c:crossAx val="2124237896"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8106,7 +9224,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8149,7 +9266,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8396,12 +9512,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140697288"/>
-        <c:axId val="-2140693976"/>
-        <c:axId val="-2140688056"/>
+        <c:axId val="2124280728"/>
+        <c:axId val="2124283704"/>
+        <c:axId val="2124289544"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2140697288"/>
+        <c:axId val="2124280728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8410,7 +9526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140693976"/>
+        <c:crossAx val="2124283704"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8418,7 +9534,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140693976"/>
+        <c:axId val="2124283704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8449,19 +9565,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140697288"/>
+        <c:crossAx val="2124280728"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2140688056"/>
+        <c:axId val="2124289544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8470,7 +9585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140693976"/>
+        <c:crossAx val="2124283704"/>
         <c:crossesAt val="0.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8487,7 +9602,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9162,6 +10276,505 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="NH Ctrl 50 Nodes AZ"/>
+      <sheetName val="NH Ctrl 50 nodes RS"/>
+      <sheetName val="NH Ctrl 50 nodes Local"/>
+      <sheetName val="NH Ctrl 50 nodes analysis"/>
+      <sheetName val="NH Redact 50 nodes AZ"/>
+      <sheetName val="NH Redact 50 nodes RS"/>
+      <sheetName val="NH Redact 50 nodes Local"/>
+      <sheetName val="NH Redact 50 nodes Analysis"/>
+      <sheetName val="NH Reroute 50 nodes AZ"/>
+      <sheetName val="NH Reroute 50 nodes RS"/>
+      <sheetName val="NH Reroute 50 nodes Local"/>
+      <sheetName val="NH Reroute 50 nodes Analysis"/>
+      <sheetName val="NH Encrypt 50 nodes AZ"/>
+      <sheetName val="NH Encrypt 50 nodes RS"/>
+      <sheetName val="NH Encrypt 50 nodes Local"/>
+      <sheetName val="NH Encrypt 50 nodes Analysis"/>
+      <sheetName val="Results Summary"/>
+      <sheetName val="Mean Tables"/>
+      <sheetName val="Stdev Tables"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18">
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>Control</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Reroute</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>Redact</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>Encrypt</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Home</v>
+          </cell>
+          <cell r="C14">
+            <v>1.2660297449281618E-2</v>
+          </cell>
+          <cell r="D14">
+            <v>1.177937090927177E-2</v>
+          </cell>
+          <cell r="E14">
+            <v>1.161391441773056E-2</v>
+          </cell>
+          <cell r="F14">
+            <v>2.4037923459887486E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Neighbor (1)</v>
+          </cell>
+          <cell r="C15">
+            <v>3.7933933466389541E-2</v>
+          </cell>
+          <cell r="D15">
+            <v>4.3099599487470969E-2</v>
+          </cell>
+          <cell r="E15">
+            <v>5.4161152970315866E-2</v>
+          </cell>
+          <cell r="F15">
+            <v>3.7738815922084688E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Neighbor (2)</v>
+          </cell>
+          <cell r="C16">
+            <v>7.9021937884620155E-2</v>
+          </cell>
+          <cell r="D16">
+            <v>7.8162726586038886E-2</v>
+          </cell>
+          <cell r="E16">
+            <v>9.9096404458079185E-2</v>
+          </cell>
+          <cell r="F16">
+            <v>0.10225907904614839</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Neighbor (3)</v>
+          </cell>
+          <cell r="C17">
+            <v>0.19760451165730941</v>
+          </cell>
+          <cell r="D17">
+            <v>0.6398384312743971</v>
+          </cell>
+          <cell r="E17">
+            <v>0.18765688483497203</v>
+          </cell>
+          <cell r="F17">
+            <v>0.32251175028345958</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Neighbor (4)</v>
+          </cell>
+          <cell r="C18">
+            <v>6.2064857080473886E-2</v>
+          </cell>
+          <cell r="D18">
+            <v>0.32939118211301094</v>
+          </cell>
+          <cell r="E18">
+            <v>1.302705700062947E-2</v>
+          </cell>
+          <cell r="F18">
+            <v>2.2712783867233782E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Neighbor (5)</v>
+          </cell>
+          <cell r="C19">
+            <v>1.7525145325560449E-2</v>
+          </cell>
+          <cell r="D19">
+            <v>2.3577672435889225E-2</v>
+          </cell>
+          <cell r="E19">
+            <v>1.7485614893999312E-2</v>
+          </cell>
+          <cell r="F19">
+            <v>1.9512763029287009E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>Control</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>Reroute</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>Redact</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>Encrypt</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Home</v>
+          </cell>
+          <cell r="C22">
+            <v>1.3392741176713291E-2</v>
+          </cell>
+          <cell r="D22">
+            <v>7.0501458587921891E-3</v>
+          </cell>
+          <cell r="E22">
+            <v>1.6415875018725729E-2</v>
+          </cell>
+          <cell r="F22">
+            <v>8.1014078666744489E-3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Neighbor (1)</v>
+          </cell>
+          <cell r="C23">
+            <v>8.4259774260313364E-3</v>
+          </cell>
+          <cell r="D23">
+            <v>0.8951134839338406</v>
+          </cell>
+          <cell r="E23">
+            <v>8.803698127011433E-3</v>
+          </cell>
+          <cell r="F23">
+            <v>3.7561498839685029E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Neighbor (2)</v>
+          </cell>
+          <cell r="C24">
+            <v>9.6578048814651568E-3</v>
+          </cell>
+          <cell r="D24">
+            <v>3.7045477167669906E-2</v>
+          </cell>
+          <cell r="E24">
+            <v>9.4718980993439734E-3</v>
+          </cell>
+          <cell r="F24">
+            <v>1.1404831688635904E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Neighbor (3)</v>
+          </cell>
+          <cell r="C25">
+            <v>1.830650894451271E-2</v>
+          </cell>
+          <cell r="D25">
+            <v>2.5225924948837283E-2</v>
+          </cell>
+          <cell r="E25">
+            <v>1.5888771194140373E-2</v>
+          </cell>
+          <cell r="F25">
+            <v>2.271609742804296E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Neighbor (4)</v>
+          </cell>
+          <cell r="C26">
+            <v>6.4912191401051297E-2</v>
+          </cell>
+          <cell r="D26">
+            <v>0.3248410575134511</v>
+          </cell>
+          <cell r="E26">
+            <v>1.5167875070268247E-2</v>
+          </cell>
+          <cell r="F26">
+            <v>1.764331058078248E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Neighbor (5)</v>
+          </cell>
+          <cell r="C27">
+            <v>1.4157904633761043E-2</v>
+          </cell>
+          <cell r="D27">
+            <v>2.6989874233864758E-2</v>
+          </cell>
+          <cell r="E27">
+            <v>1.6868091937473271E-2</v>
+          </cell>
+          <cell r="F27">
+            <v>1.7603086735274966E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Control</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Reroute</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>Redact</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>Encrypt</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Home</v>
+          </cell>
+          <cell r="C30">
+            <v>1.8811338319333053E-2</v>
+          </cell>
+          <cell r="D30">
+            <v>1.9448991278753186E-2</v>
+          </cell>
+          <cell r="E30">
+            <v>7.441845043311154E-3</v>
+          </cell>
+          <cell r="F30">
+            <v>6.0069617641473803E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Neighbor (1)</v>
+          </cell>
+          <cell r="C31">
+            <v>3.902593063501137E-2</v>
+          </cell>
+          <cell r="D31">
+            <v>8.6556400134805159E-2</v>
+          </cell>
+          <cell r="E31">
+            <v>1.0419271746116732E-2</v>
+          </cell>
+          <cell r="F31">
+            <v>7.766015786419514E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Neighbor (2)</v>
+          </cell>
+          <cell r="C32">
+            <v>6.9877147900121686E-2</v>
+          </cell>
+          <cell r="D32">
+            <v>8.9482428982837994E-2</v>
+          </cell>
+          <cell r="E32">
+            <v>6.1621444747272242E-2</v>
+          </cell>
+          <cell r="F32">
+            <v>6.4336582427629033E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Neighbor (3)</v>
+          </cell>
+          <cell r="C33">
+            <v>3.6270661966851192E-2</v>
+          </cell>
+          <cell r="D33">
+            <v>0.17877870901617549</v>
+          </cell>
+          <cell r="E33">
+            <v>5.4080208699770073E-2</v>
+          </cell>
+          <cell r="F33">
+            <v>5.1504357070592782E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Neighbor (4)</v>
+          </cell>
+          <cell r="C34">
+            <v>1.8031647679503909E-2</v>
+          </cell>
+          <cell r="D34">
+            <v>3.9960248855006757E-2</v>
+          </cell>
+          <cell r="E34">
+            <v>7.8048243889116561E-2</v>
+          </cell>
+          <cell r="F34">
+            <v>1.6375915393416443E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Neighbor (5)</v>
+          </cell>
+          <cell r="C35">
+            <v>2.0527814882235908E-2</v>
+          </cell>
+          <cell r="D35">
+            <v>3.482842275936792E-2</v>
+          </cell>
+          <cell r="E35">
+            <v>2.1463396989516614E-2</v>
+          </cell>
+          <cell r="F35">
+            <v>2.9163981898211327E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9487,12 +11100,12 @@
   <dimension ref="A1:AX21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="12">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9503,22 +11116,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="12">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="12">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="12">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="12">
+    <row r="5" spans="1:50">
       <c r="A5">
         <v>0.100862937</v>
       </c>
@@ -9670,12 +11283,12 @@
         <v>6.0070330000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="12">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="12">
+    <row r="7" spans="1:50">
       <c r="A7">
         <v>0.41314020800000001</v>
       </c>
@@ -9827,12 +11440,12 @@
         <v>1.9875816000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="12">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="12">
+    <row r="9" spans="1:50">
       <c r="A9">
         <v>0.64502372299999999</v>
       </c>
@@ -9984,12 +11597,12 @@
         <v>4.1071719999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="12">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="12">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>1.3705250410000001</v>
       </c>
@@ -10141,12 +11754,12 @@
         <v>0.21306201499999999</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="12">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="12">
+    <row r="13" spans="1:50">
       <c r="A13">
         <v>0.237816836</v>
       </c>
@@ -10298,12 +11911,12 @@
         <v>0.22299213800000001</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="12">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="12">
+    <row r="16" spans="1:50">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -10314,7 +11927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -10331,7 +11944,7 @@
         <v>1.3597417902153608E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -10348,7 +11961,7 @@
         <v>5.5684695232599099E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -10365,7 +11978,7 @@
         <v>8.824771964388374E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -10382,7 +11995,7 @@
         <v>0.16215655691397868</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -10401,7 +12014,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -10422,9 +12035,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="12">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10435,22 +12048,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="12">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="12">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="12">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="12">
+    <row r="5" spans="1:50">
       <c r="A5">
         <v>0.199436478</v>
       </c>
@@ -10602,12 +12215,12 @@
         <v>8.1184472999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="12">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="12">
+    <row r="7" spans="1:50">
       <c r="A7">
         <v>0.14135619099999999</v>
       </c>
@@ -10759,12 +12372,12 @@
         <v>9.4008625999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="12">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="12">
+    <row r="9" spans="1:50">
       <c r="A9">
         <v>0.18331329800000001</v>
       </c>
@@ -10916,12 +12529,12 @@
         <v>0.11804772199999999</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="12">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="12">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>0.14890203799999999</v>
       </c>
@@ -11073,12 +12686,12 @@
         <v>0.17195724400000001</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="12">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="12">
+    <row r="13" spans="1:50">
       <c r="A13">
         <v>0.16330270699999999</v>
       </c>
@@ -11230,12 +12843,12 @@
         <v>0.17162653</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="12">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="12">
+    <row r="16" spans="1:50">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -11246,7 +12859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -11263,7 +12876,7 @@
         <v>1.7255229003353922E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -11280,7 +12893,7 @@
         <v>1.8137710937101887E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -11297,7 +12910,7 @@
         <v>2.3707218861626186E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -11314,7 +12927,7 @@
         <v>2.5963980882958003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -11354,9 +12967,9 @@
       <selection activeCell="A16" sqref="A16:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="12">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11367,22 +12980,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="12">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="12">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="12">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="12">
+    <row r="5" spans="1:50">
       <c r="A5">
         <v>0.31827812799999999</v>
       </c>
@@ -11534,12 +13147,12 @@
         <v>0.24353660599999999</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="12">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="12">
+    <row r="7" spans="1:50">
       <c r="A7">
         <v>0.33999596100000001</v>
       </c>
@@ -11691,12 +13304,12 @@
         <v>0.296249912</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="12">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="12">
+    <row r="9" spans="1:50">
       <c r="A9">
         <v>0.34262386299999997</v>
       </c>
@@ -11848,12 +13461,12 @@
         <v>0.31613878299999998</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="12">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="12">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>0.36967228400000002</v>
       </c>
@@ -12005,12 +13618,12 @@
         <v>0.256046834</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="12">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="12">
+    <row r="13" spans="1:50">
       <c r="A13">
         <v>0.25876592300000001</v>
       </c>
@@ -12162,12 +13775,12 @@
         <v>0.32297208399999999</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="12">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="12">
+    <row r="16" spans="1:50">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -12178,7 +13791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -12195,7 +13808,7 @@
         <v>6.1765033590210253E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -12212,7 +13825,7 @@
         <v>6.0665891530348105E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -12229,7 +13842,7 @@
         <v>5.5794890985096476E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -12246,7 +13859,7 @@
         <v>3.1183031177819353E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -12280,16 +13893,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I1:L21"/>
+  <dimension ref="I2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="9:12" ht="12"/>
-    <row r="2" spans="9:12" ht="12">
+    <row r="2" spans="9:12">
       <c r="I2" t="s">
         <v>10</v>
       </c>
@@ -12303,7 +13915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="9:12" ht="12">
+    <row r="3" spans="9:12">
       <c r="I3" t="s">
         <v>13</v>
       </c>
@@ -12317,7 +13929,7 @@
         <v>0.30459413728000001</v>
       </c>
     </row>
-    <row r="4" spans="9:12" ht="12">
+    <row r="4" spans="9:12">
       <c r="I4" t="s">
         <v>14</v>
       </c>
@@ -12331,7 +13943,7 @@
         <v>0.31970392749999998</v>
       </c>
     </row>
-    <row r="5" spans="9:12" ht="12">
+    <row r="5" spans="9:12">
       <c r="I5" t="s">
         <v>15</v>
       </c>
@@ -12345,7 +13957,7 @@
         <v>0.35659823244</v>
       </c>
     </row>
-    <row r="6" spans="9:12" ht="12">
+    <row r="6" spans="9:12">
       <c r="I6" t="s">
         <v>23</v>
       </c>
@@ -12359,7 +13971,7 @@
         <v>0.27940036060000001</v>
       </c>
     </row>
-    <row r="7" spans="9:12" ht="12">
+    <row r="7" spans="9:12">
       <c r="I7" t="s">
         <v>24</v>
       </c>
@@ -12373,7 +13985,7 @@
         <v>0.28068251051999998</v>
       </c>
     </row>
-    <row r="9" spans="9:12" ht="12">
+    <row r="9" spans="9:12">
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -12387,7 +13999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="9:12" ht="12">
+    <row r="10" spans="9:12">
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -12401,7 +14013,7 @@
         <v>6.1765033590210697E-2</v>
       </c>
     </row>
-    <row r="11" spans="9:12" ht="12">
+    <row r="11" spans="9:12">
       <c r="I11" t="s">
         <v>14</v>
       </c>
@@ -12415,7 +14027,7 @@
         <v>6.0665891530348001E-2</v>
       </c>
     </row>
-    <row r="12" spans="9:12" ht="12">
+    <row r="12" spans="9:12">
       <c r="I12" t="s">
         <v>15</v>
       </c>
@@ -12429,7 +14041,7 @@
         <v>5.5794890985096199E-2</v>
       </c>
     </row>
-    <row r="13" spans="9:12" ht="12">
+    <row r="13" spans="9:12">
       <c r="I13" t="s">
         <v>23</v>
       </c>
@@ -12443,7 +14055,7 @@
         <v>3.1183031177820002E-2</v>
       </c>
     </row>
-    <row r="14" spans="9:12" ht="12">
+    <row r="14" spans="9:12">
       <c r="I14" t="s">
         <v>24</v>
       </c>
@@ -12457,7 +14069,7 @@
         <v>2.87137085090922E-2</v>
       </c>
     </row>
-    <row r="16" spans="9:12" ht="12">
+    <row r="16" spans="9:12">
       <c r="I16" t="s">
         <v>11</v>
       </c>
@@ -12471,7 +14083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="9:12" ht="12">
+    <row r="17" spans="9:12">
       <c r="I17" t="s">
         <v>13</v>
       </c>
@@ -12485,7 +14097,7 @@
         <v>0.29176843749999998</v>
       </c>
     </row>
-    <row r="18" spans="9:12" ht="12">
+    <row r="18" spans="9:12">
       <c r="I18" t="s">
         <v>14</v>
       </c>
@@ -12499,7 +14111,7 @@
         <v>0.30271659400000001</v>
       </c>
     </row>
-    <row r="19" spans="9:12" ht="12">
+    <row r="19" spans="9:12">
       <c r="I19" t="s">
         <v>15</v>
       </c>
@@ -12513,7 +14125,7 @@
         <v>0.34246214850000001</v>
       </c>
     </row>
-    <row r="20" spans="9:12" ht="12">
+    <row r="20" spans="9:12">
       <c r="I20" t="s">
         <v>23</v>
       </c>
@@ -12527,7 +14139,7 @@
         <v>0.26488984650000003</v>
       </c>
     </row>
-    <row r="21" spans="9:12" ht="12">
+    <row r="21" spans="9:12">
       <c r="I21" t="s">
         <v>24</v>
       </c>
@@ -15366,9 +16978,9 @@
       <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:18" ht="12">
+    <row r="3" spans="2:18">
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
@@ -15399,8 +17011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -15948,6 +17560,394 @@
       </c>
       <c r="F50">
         <v>0.27357608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B13:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <f>'Ctrl 50 Nodes AZ'!D17</f>
+        <v>1.3597417902153608E-2</v>
+      </c>
+      <c r="D14">
+        <f>'Reroute 50 nodes AZ'!D17</f>
+        <v>1.4253525557119113E-2</v>
+      </c>
+      <c r="E14">
+        <f>'Redact 50 nodes AZ'!D17</f>
+        <v>1.3966891624169819E-2</v>
+      </c>
+      <c r="F14">
+        <f>'Encrypt 50 nodes AZ'!D17</f>
+        <v>1.9874190201382333E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f>'Ctrl 50 Nodes AZ'!D18</f>
+        <v>5.5684695232599099E-2</v>
+      </c>
+      <c r="D15">
+        <f>'Reroute 50 nodes AZ'!D18</f>
+        <v>4.1860762093232994E-2</v>
+      </c>
+      <c r="E15">
+        <f>'Redact 50 nodes AZ'!D18</f>
+        <v>3.9428152768994161E-2</v>
+      </c>
+      <c r="F15">
+        <f>'Encrypt 50 nodes AZ'!D18</f>
+        <v>7.0297895990495997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f>'Ctrl 50 Nodes AZ'!D19</f>
+        <v>8.824771964388374E-2</v>
+      </c>
+      <c r="D16">
+        <f>'Reroute 50 nodes AZ'!D19</f>
+        <v>7.523817376746221E-2</v>
+      </c>
+      <c r="E16">
+        <f>'Redact 50 nodes AZ'!D19</f>
+        <v>7.6663769025412956E-2</v>
+      </c>
+      <c r="F16">
+        <f>'Encrypt 50 nodes AZ'!D19</f>
+        <v>1.0472804954635229E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <f>'Ctrl 50 Nodes AZ'!D20</f>
+        <v>0.16215655691397868</v>
+      </c>
+      <c r="D17">
+        <f>'Reroute 50 nodes AZ'!D20</f>
+        <v>0.20174888028071383</v>
+      </c>
+      <c r="E17">
+        <f>'Redact 50 nodes AZ'!D20</f>
+        <v>0.19103938694432077</v>
+      </c>
+      <c r="F17">
+        <f>'Encrypt 50 nodes AZ'!D20</f>
+        <v>7.1947636811143342E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <f>'Ctrl 50 Nodes AZ'!D21</f>
+        <v>1.1273730225502959E-2</v>
+      </c>
+      <c r="D18">
+        <f>'Reroute 50 nodes AZ'!D21</f>
+        <v>2.9959127767035951E-2</v>
+      </c>
+      <c r="E18">
+        <f>'Redact 50 nodes AZ'!D21</f>
+        <v>1.566772436050089E-2</v>
+      </c>
+      <c r="F18">
+        <f>'Encrypt 50 nodes AZ'!D21</f>
+        <v>1.9411519536868978E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <f>'Ctrl 50 nodes RS'!D17</f>
+        <v>1.3090572483812433E-2</v>
+      </c>
+      <c r="D22">
+        <f>'Reroute 50 nodes RS'!D17</f>
+        <v>1.7255229003353922E-2</v>
+      </c>
+      <c r="E22">
+        <f>'Redact 50 nodes RS'!D17</f>
+        <v>1.8003253951734813E-2</v>
+      </c>
+      <c r="F22">
+        <f>'Encrypt 50 nodes RS'!D17</f>
+        <v>5.7363063420291099E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <f>'Ctrl 50 nodes RS'!D18</f>
+        <v>8.6656908586574023E-3</v>
+      </c>
+      <c r="D23">
+        <f>'Reroute 50 nodes RS'!D18</f>
+        <v>1.8137710937101887E-2</v>
+      </c>
+      <c r="E23">
+        <f>'Redact 50 nodes RS'!D18</f>
+        <v>9.8271183413047736E-3</v>
+      </c>
+      <c r="F23">
+        <f>'Encrypt 50 nodes RS'!D18</f>
+        <v>2.4200892688788406E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <f>'Ctrl 50 nodes RS'!D19</f>
+        <v>1.3226968841641621E-2</v>
+      </c>
+      <c r="D24">
+        <f>'Reroute 50 nodes RS'!D19</f>
+        <v>2.3707218861626186E-2</v>
+      </c>
+      <c r="E24">
+        <f>'Redact 50 nodes RS'!D19</f>
+        <v>1.3209017486307531E-2</v>
+      </c>
+      <c r="F24">
+        <f>'Encrypt 50 nodes RS'!D19</f>
+        <v>1.7608193390488844E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <f>'Ctrl 50 nodes RS'!D20</f>
+        <v>1.3623993786389716E-2</v>
+      </c>
+      <c r="D25">
+        <f>'Reroute 50 nodes RS'!D20</f>
+        <v>2.5963980882958003E-2</v>
+      </c>
+      <c r="E25">
+        <f>'Redact 50 nodes RS'!D20</f>
+        <v>1.5470300734502932E-2</v>
+      </c>
+      <c r="F25">
+        <f>'Encrypt 50 nodes RS'!D20</f>
+        <v>1.9408511640730371E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <f>'Ctrl 50 nodes RS'!D21</f>
+        <v>1.1713672847372127E-2</v>
+      </c>
+      <c r="D26">
+        <f>'Reroute 50 nodes RS'!D21</f>
+        <v>2.797032208285917E-2</v>
+      </c>
+      <c r="E26">
+        <f>'Redact 50 nodes RS'!D21</f>
+        <v>1.5982130169185961E-2</v>
+      </c>
+      <c r="F26">
+        <f>'Encrypt 50 nodes RS'!D21</f>
+        <v>1.8433303245605971E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <f>'Ctrl 50 nodes Local'!D17</f>
+        <v>1.4075242408648964E-2</v>
+      </c>
+      <c r="D30">
+        <f>'Reroute 50 nodes Local'!D17</f>
+        <v>6.1765033590210253E-2</v>
+      </c>
+      <c r="E30">
+        <f>'Redact 50 nodes Local'!D17</f>
+        <v>7.6495339784132116E-2</v>
+      </c>
+      <c r="F30">
+        <f>'Encrypt 50 nodes Local'!D17</f>
+        <v>6.3561281316633694E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <f>'Ctrl 50 nodes Local'!D18</f>
+        <v>0.7072496340927662</v>
+      </c>
+      <c r="D31">
+        <f>'Reroute 50 nodes Local'!D18</f>
+        <v>6.0665891530348105E-2</v>
+      </c>
+      <c r="E31">
+        <f>'Redact 50 nodes Local'!D18</f>
+        <v>7.0400204352764395E-2</v>
+      </c>
+      <c r="F31">
+        <f>'Encrypt 50 nodes Local'!D18</f>
+        <v>8.6787260934836682E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <f>'Ctrl 50 nodes Local'!D19</f>
+        <v>4.9629565453678755E-2</v>
+      </c>
+      <c r="D32">
+        <f>'Reroute 50 nodes Local'!D19</f>
+        <v>5.5794890985096476E-2</v>
+      </c>
+      <c r="E32">
+        <f>'Redact 50 nodes Local'!D19</f>
+        <v>8.2554694258157341E-2</v>
+      </c>
+      <c r="F32">
+        <f>'Encrypt 50 nodes Local'!D19</f>
+        <v>1.7291181661252909E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <f>'Ctrl 50 nodes Local'!D20</f>
+        <v>4.214577745940884E-2</v>
+      </c>
+      <c r="D33">
+        <f>'Reroute 50 nodes Local'!D20</f>
+        <v>3.1183031177819353E-2</v>
+      </c>
+      <c r="E33">
+        <f>'Redact 50 nodes Local'!D20</f>
+        <v>5.4431167579377354E-2</v>
+      </c>
+      <c r="F33">
+        <f>'Encrypt 50 nodes Local'!D20</f>
+        <v>2.2162825081322685E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <f>'Ctrl 50 nodes Local'!D21</f>
+        <v>2.0140719087255586E-2</v>
+      </c>
+      <c r="D34">
+        <f>'Reroute 50 nodes Local'!D21</f>
+        <v>2.8713708509092082E-2</v>
+      </c>
+      <c r="E34">
+        <f>'Redact 50 nodes Local'!D21</f>
+        <v>6.1456662587677957E-2</v>
+      </c>
+      <c r="F34">
+        <f>'Encrypt 50 nodes Local'!D21</f>
+        <v>6.2748231170724644E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15970,9 +17970,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="12">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15983,22 +17983,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="12">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="12">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="12">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="12">
+    <row r="5" spans="1:50">
       <c r="A5">
         <v>0.15189386299999999</v>
       </c>
@@ -16150,12 +18150,12 @@
         <v>8.1009572000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="12">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="12">
+    <row r="7" spans="1:50">
       <c r="A7">
         <v>0.101438582</v>
       </c>
@@ -16307,12 +18307,12 @@
         <v>9.4138878999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="12">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="12">
+    <row r="9" spans="1:50">
       <c r="A9">
         <v>0.124284667</v>
       </c>
@@ -16464,12 +18464,12 @@
         <v>0.116723677</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="12">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="12">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>0.14450793100000001</v>
       </c>
@@ -16621,12 +18621,12 @@
         <v>0.15404691200000001</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="12">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="12">
+    <row r="13" spans="1:50">
       <c r="A13">
         <v>0.17538659700000001</v>
       </c>
@@ -16778,12 +18778,12 @@
         <v>0.14881454099999999</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="12">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="12">
+    <row r="16" spans="1:50">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -16794,7 +18794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -16811,7 +18811,7 @@
         <v>1.3090572483812433E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -16828,7 +18828,7 @@
         <v>8.6656908586574023E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -16845,7 +18845,7 @@
         <v>1.3226968841641621E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -16862,7 +18862,7 @@
         <v>1.3623993786389716E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -16899,12 +18899,12 @@
   <dimension ref="A1:AX21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="V80" sqref="V80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="12">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16915,22 +18915,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="12">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="12">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="12">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="12">
+    <row r="5" spans="1:50">
       <c r="A5">
         <v>0.29503391800000001</v>
       </c>
@@ -17082,12 +19082,12 @@
         <v>0.23174404000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="12">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="12">
+    <row r="7" spans="1:50">
       <c r="A7">
         <v>0.277432501</v>
       </c>
@@ -17239,12 +19239,12 @@
         <v>0.260375788</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="12">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="12">
+    <row r="9" spans="1:50">
       <c r="A9">
         <v>0.320032121</v>
       </c>
@@ -17396,12 +19396,12 @@
         <v>0.353801696</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="12">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="12">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>0.26958909800000003</v>
       </c>
@@ -17553,12 +19553,12 @@
         <v>0.25167709500000002</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="12">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="12">
+    <row r="13" spans="1:50">
       <c r="A13">
         <v>0.25210293499999997</v>
       </c>
@@ -17710,12 +19710,12 @@
         <v>0.27390335399999999</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="12">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="12">
+    <row r="16" spans="1:50">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -17726,7 +19726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -17743,7 +19743,7 @@
         <v>1.4075242408648964E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -17760,7 +19760,7 @@
         <v>0.7072496340927662</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -17777,7 +19777,7 @@
         <v>4.9629565453678755E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -17794,7 +19794,7 @@
         <v>4.214577745940884E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -17834,9 +19834,9 @@
       <selection activeCell="I2" sqref="I2:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:12" ht="12">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -17862,7 +19862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -17888,7 +19888,7 @@
         <v>0.23955230106</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -17914,7 +19914,7 @@
         <v>0.35825068187999998</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -17940,7 +19940,7 @@
         <v>0.30044313206000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -17966,7 +19966,7 @@
         <v>0.27823622174000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -17992,7 +19992,7 @@
         <v>0.26823443058000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -18018,7 +20018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -18044,7 +20044,7 @@
         <v>1.4075242408649E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -18070,7 +20070,7 @@
         <v>0.70724963409276598</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -18096,7 +20096,7 @@
         <v>4.9629565453678498E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -18122,7 +20122,7 @@
         <v>4.2145777459408701E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -18148,7 +20148,7 @@
         <v>2.01407190872556E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="12">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -18174,7 +20174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="12">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -18200,7 +20200,7 @@
         <v>0.233468648</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="12">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -18226,7 +20226,7 @@
         <v>0.25410051150000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -18252,7 +20252,7 @@
         <v>0.28765242000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="12">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -18278,7 +20278,7 @@
         <v>0.26420825749999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="12">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -18328,9 +20328,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="12">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18341,22 +20341,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="12">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="12">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="12">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="12">
+    <row r="5" spans="1:50">
       <c r="A5">
         <v>0.105852945</v>
       </c>
@@ -18508,12 +20508,12 @@
         <v>7.9238320000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="12">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="12">
+    <row r="7" spans="1:50">
       <c r="A7">
         <v>0.29511327599999998</v>
       </c>
@@ -18665,12 +20665,12 @@
         <v>1.623979E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="12">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="12">
+    <row r="9" spans="1:50">
       <c r="A9">
         <v>0.57967846599999995</v>
       </c>
@@ -18822,12 +20822,12 @@
         <v>3.9395224E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="12">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="12">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>1.575053839</v>
       </c>
@@ -18979,12 +20979,12 @@
         <v>0.24389045200000001</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="12">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="12">
+    <row r="13" spans="1:50">
       <c r="A13">
         <v>0.21253939299999999</v>
       </c>
@@ -19136,12 +21136,12 @@
         <v>0.21711968600000001</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="12">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="12">
+    <row r="16" spans="1:50">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -19152,7 +21152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -19169,7 +21169,7 @@
         <v>1.3966891624169819E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -19186,7 +21186,7 @@
         <v>3.9428152768994161E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -19203,7 +21203,7 @@
         <v>7.6663769025412956E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -19220,7 +21220,7 @@
         <v>0.19103938694432077</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -19260,9 +21260,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="12">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19273,22 +21273,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="12">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="12">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="12">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="12">
+    <row r="5" spans="1:50">
       <c r="A5">
         <v>0.20555477</v>
       </c>
@@ -19440,12 +21440,12 @@
         <v>8.1036292999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="12">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="12">
+    <row r="7" spans="1:50">
       <c r="A7">
         <v>0.13495232800000001</v>
       </c>
@@ -19597,12 +21597,12 @@
         <v>9.0441771000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="12">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="12">
+    <row r="9" spans="1:50">
       <c r="A9">
         <v>0.13532430300000001</v>
       </c>
@@ -19754,12 +21754,12 @@
         <v>0.116186002</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="12">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="12">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>0.14445884000000001</v>
       </c>
@@ -19911,12 +21911,12 @@
         <v>0.16968097400000001</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="12">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="12">
+    <row r="13" spans="1:50">
       <c r="A13">
         <v>0.15335478699999999</v>
       </c>
@@ -20068,12 +22068,12 @@
         <v>0.170846211</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="12">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="12">
+    <row r="16" spans="1:50">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -20084,7 +22084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -20101,7 +22101,7 @@
         <v>1.8003253951734813E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -20118,7 +22118,7 @@
         <v>9.8271183413047736E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -20135,7 +22135,7 @@
         <v>1.3209017486307531E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -20152,7 +22152,7 @@
         <v>1.5470300734502932E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -20192,9 +22192,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="12">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20205,22 +22205,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="12">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="12">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="12">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="12">
+    <row r="5" spans="1:50">
       <c r="A5">
         <v>0.28266756199999998</v>
       </c>
@@ -20372,12 +22372,12 @@
         <v>0.34708230699999998</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="12">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="12">
+    <row r="7" spans="1:50">
       <c r="A7">
         <v>0.35356261500000002</v>
       </c>
@@ -20529,12 +22529,12 @@
         <v>0.36669524799999997</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="12">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="12">
+    <row r="9" spans="1:50">
       <c r="A9">
         <v>0.621067692</v>
       </c>
@@ -20686,12 +22686,12 @@
         <v>0.454870357</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="12">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="12">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>0.45768271700000002</v>
       </c>
@@ -20843,12 +22843,12 @@
         <v>0.25355821899999997</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="12">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="12">
+    <row r="13" spans="1:50">
       <c r="A13">
         <v>0.258107066</v>
       </c>
@@ -21000,12 +23000,12 @@
         <v>0.25480070799999999</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="12">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="12">
+    <row r="16" spans="1:50">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -21016,7 +23016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -21033,7 +23033,7 @@
         <v>7.6495339784132116E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -21050,7 +23050,7 @@
         <v>7.0400204352764395E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -21067,7 +23067,7 @@
         <v>8.2554694258157341E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -21084,7 +23084,7 @@
         <v>5.4431167579377354E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -21118,16 +23118,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I1:L21"/>
+  <dimension ref="I2:L21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="9:12" ht="12"/>
-    <row r="2" spans="9:12" ht="12">
+    <row r="2" spans="9:12">
       <c r="I2" t="s">
         <v>10</v>
       </c>
@@ -21141,7 +23140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="9:12" ht="12">
+    <row r="3" spans="9:12">
       <c r="I3" t="s">
         <v>13</v>
       </c>
@@ -21155,7 +23154,7 @@
         <v>0.33364643931999999</v>
       </c>
     </row>
-    <row r="4" spans="9:12" ht="12">
+    <row r="4" spans="9:12">
       <c r="I4" t="s">
         <v>14</v>
       </c>
@@ -21169,7 +23168,7 @@
         <v>0.36301413342</v>
       </c>
     </row>
-    <row r="5" spans="9:12" ht="12">
+    <row r="5" spans="9:12">
       <c r="I5" t="s">
         <v>15</v>
       </c>
@@ -21183,7 +23182,7 @@
         <v>0.38890592507999999</v>
       </c>
     </row>
-    <row r="6" spans="9:12" ht="12">
+    <row r="6" spans="9:12">
       <c r="I6" t="s">
         <v>23</v>
       </c>
@@ -21197,7 +23196,7 @@
         <v>0.28711691975999998</v>
       </c>
     </row>
-    <row r="7" spans="9:12" ht="12">
+    <row r="7" spans="9:12">
       <c r="I7" t="s">
         <v>24</v>
       </c>
@@ -21211,7 +23210,7 @@
         <v>0.28859551604</v>
       </c>
     </row>
-    <row r="9" spans="9:12" ht="12">
+    <row r="9" spans="9:12">
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -21225,7 +23224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="9:12" ht="12">
+    <row r="10" spans="9:12">
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -21239,7 +23238,7 @@
         <v>7.6495339784131602E-2</v>
       </c>
     </row>
-    <row r="11" spans="9:12" ht="12">
+    <row r="11" spans="9:12">
       <c r="I11" t="s">
         <v>14</v>
       </c>
@@ -21253,7 +23252,7 @@
         <v>7.0400204352763895E-2</v>
       </c>
     </row>
-    <row r="12" spans="9:12" ht="12">
+    <row r="12" spans="9:12">
       <c r="I12" t="s">
         <v>15</v>
       </c>
@@ -21267,7 +23266,7 @@
         <v>8.2554694258158395E-2</v>
       </c>
     </row>
-    <row r="13" spans="9:12" ht="12">
+    <row r="13" spans="9:12">
       <c r="I13" t="s">
         <v>23</v>
       </c>
@@ -21281,7 +23280,7 @@
         <v>5.4431167579377403E-2</v>
       </c>
     </row>
-    <row r="14" spans="9:12" ht="12">
+    <row r="14" spans="9:12">
       <c r="I14" t="s">
         <v>24</v>
       </c>
@@ -21295,7 +23294,7 @@
         <v>6.14566625876777E-2</v>
       </c>
     </row>
-    <row r="16" spans="9:12" ht="12">
+    <row r="16" spans="9:12">
       <c r="I16" t="s">
         <v>11</v>
       </c>
@@ -21309,7 +23308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="9:12" ht="12">
+    <row r="17" spans="9:12">
       <c r="I17" t="s">
         <v>13</v>
       </c>
@@ -21323,7 +23322,7 @@
         <v>0.30961019249999999</v>
       </c>
     </row>
-    <row r="18" spans="9:12" ht="12">
+    <row r="18" spans="9:12">
       <c r="I18" t="s">
         <v>14</v>
       </c>
@@ -21337,7 +23336,7 @@
         <v>0.33877557949999998</v>
       </c>
     </row>
-    <row r="19" spans="9:12" ht="12">
+    <row r="19" spans="9:12">
       <c r="I19" t="s">
         <v>15</v>
       </c>
@@ -21351,7 +23350,7 @@
         <v>0.35862076999999998</v>
       </c>
     </row>
-    <row r="20" spans="9:12" ht="12">
+    <row r="20" spans="9:12">
       <c r="I20" t="s">
         <v>23</v>
       </c>
@@ -21365,7 +23364,7 @@
         <v>0.26366928750000002</v>
       </c>
     </row>
-    <row r="21" spans="9:12" ht="12">
+    <row r="21" spans="9:12">
       <c r="I21" t="s">
         <v>24</v>
       </c>
@@ -21403,9 +23402,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="12">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21416,22 +23415,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="12">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="12">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="12">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="12">
+    <row r="5" spans="1:50">
       <c r="A5">
         <v>0.108955867</v>
       </c>
@@ -21583,12 +23582,12 @@
         <v>7.6816810000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="12">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="12">
+    <row r="7" spans="1:50">
       <c r="A7">
         <v>0.31946180299999999</v>
       </c>
@@ -21740,12 +23739,12 @@
         <v>2.4841605999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="12">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="12">
+    <row r="9" spans="1:50">
       <c r="A9">
         <v>0.58171490000000003</v>
       </c>
@@ -21897,12 +23896,12 @@
         <v>7.4228973000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="12">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="12">
+    <row r="11" spans="1:50">
       <c r="A11">
         <v>1.662711593</v>
       </c>
@@ -22054,12 +24053,12 @@
         <v>0.28192962999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="12">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="12">
+    <row r="13" spans="1:50">
       <c r="A13">
         <v>0.226154097</v>
       </c>
@@ -22211,12 +24210,12 @@
         <v>0.22463989700000001</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="12">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="12">
+    <row r="16" spans="1:50">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -22227,7 +24226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -22244,7 +24243,7 @@
         <v>1.4253525557119113E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -22261,7 +24260,7 @@
         <v>4.1860762093232994E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -22278,7 +24277,7 @@
         <v>7.523817376746221E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -22295,7 +24294,7 @@
         <v>0.20174888028071383</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>17</v>
       </c>
